--- a/ELDAanalysis.xlsx
+++ b/ELDAanalysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Druker Lab\Baf3 acquired mutations\PlateCountResultsAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="19875" windowHeight="14340" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="19875" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ELDAanalysis" sheetId="1" r:id="rId1"/>
@@ -12,19 +17,22 @@
     <sheet name="3Bins" sheetId="3" r:id="rId3"/>
     <sheet name="1Bin" sheetId="4" r:id="rId4"/>
     <sheet name="MeanMedian" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1Bin'!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3Bins'!$A$1:$H$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Day2v9!$A$2:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Day2v9!$J$2:$K$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ELDAanalysis!$A$1:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$B$51</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="108">
   <si>
     <t>Lower</t>
   </si>
@@ -342,6 +350,12 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>9d</t>
   </si>
 </sst>
 </file>
@@ -829,20 +843,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -922,6 +937,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1162,82 +1180,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2446462.3772858498</c:v>
+                  <c:v>3558490.7305975901</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380609.55553554802</c:v>
+                  <c:v>507479.40738072997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1568162.4363238299</c:v>
+                  <c:v>2116049.3157312102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92485.769036600293</c:v>
+                  <c:v>140930.69567481999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16028.978271923101</c:v>
+                  <c:v>23673.567909301699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84650.360906671005</c:v>
+                  <c:v>117774.41517449899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9635.7814123041207</c:v>
+                  <c:v>13603.4561114881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2449.84910531989</c:v>
+                  <c:v>3359.79305872442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>593.37746904564597</c:v>
+                  <c:v>825.56865258524601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>414.01642190845399</c:v>
+                  <c:v>628.11018510180099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>680.39609195626099</c:v>
+                  <c:v>989.81218780801203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1322.5805031695299</c:v>
+                  <c:v>1953.3496662196201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3472.9059897889601</c:v>
+                  <c:v>5377.4028228990301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.97546336908903</c:v>
+                  <c:v>601.78539878679703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>668.549050266216</c:v>
+                  <c:v>1035.1727229928499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.70354988831099</c:v>
+                  <c:v>264.26406471997097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>495.92324158918399</c:v>
+                  <c:v>634.781749234156</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>325.237986316177</c:v>
+                  <c:v>498.899117789591</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.889093744942201</c:v>
+                  <c:v>35.497619687062198</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.71215580043071</c:v>
+                  <c:v>2.2330454021919901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.46470040762562</c:v>
+                  <c:v>1.92625393731066</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.29485023583615</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.5433118885677499</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0161764795449</c:v>
+                  <c:v>2.7447708461383802</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>10000000</c:v>
@@ -1252,28 +1270,28 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1779245.3652987899</c:v>
+                  <c:v>2466557.81696242</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3696.9644407430901</c:v>
+                  <c:v>5377.4028228990301</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7407.8321787900404</c:v>
+                  <c:v>10940.798294828401</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>143.554861058993</c:v>
+                  <c:v>225.28449142191101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.406600215812297</c:v>
+                  <c:v>64.458413010796093</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19.510033822481901</c:v>
+                  <c:v>28.6729367522668</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>363.04168233145901</c:v>
+                  <c:v>489.88171485619898</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10000000</c:v>
@@ -1282,10 +1300,10 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2483529.9890629002</c:v>
+                  <c:v>3558490.7305975901</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19315.5465863518</c:v>
+                  <c:v>30312.405007687401</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10000000</c:v>
@@ -1294,22 +1312,22 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2576269261809601</c:v>
+                  <c:v>3.1589847813188201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2214603397463</c:v>
+                  <c:v>1.8530948037182</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>1.28758621148876</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>1.5433118885677499</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6360611232011402</c:v>
+                  <c:v>3.5886658697826301</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9270114562926499</c:v>
+                  <c:v>2.2473313921226898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,70 +1552,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>48586.210991013097</c:v>
+                  <c:v>70670.852350564397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117998.528480195</c:v>
+                  <c:v>169072.518419384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39643.366641560497</c:v>
+                  <c:v>52857.822188747297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109192.668145852</c:v>
+                  <c:v>169072.518419384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31146.911431633602</c:v>
+                  <c:v>42029.064780148001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21048.659362429102</c:v>
+                  <c:v>32074.147599892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7129.8083950285099</c:v>
+                  <c:v>10530.1785526575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21064.2809823469</c:v>
+                  <c:v>29306.825714569499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4708.9081059414902</c:v>
+                  <c:v>6647.8702672115196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1021.78685479501</c:v>
+                  <c:v>1401.3076865760199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>244.55774743045299</c:v>
+                  <c:v>340.25425729454298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.86604554099199</c:v>
+                  <c:v>257.70618666632402</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>271.39329343936498</c:v>
+                  <c:v>394.81177612776202</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>490.865960974431</c:v>
+                  <c:v>724.97126543915999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1735.9322502488899</c:v>
+                  <c:v>2687.89509715957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164.34979306399001</c:v>
+                  <c:v>246.65675283103801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>272.21192332206198</c:v>
+                  <c:v>421.48942965996702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.315095603682096</c:v>
+                  <c:v>89.922286188560605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201.73310439384801</c:v>
+                  <c:v>258.218373624126</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.770853925567</c:v>
+                  <c:v>197.52817359416301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.83196150470389</c:v>
+                  <c:v>11.170193408676701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0741443573143401</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
@@ -1609,67 +1627,67 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.30372412988023</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>132932.82920580401</c:v>
+                  <c:v>165734.43641243101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>132087.905015144</c:v>
+                  <c:v>169072.518419384</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79252.743009086204</c:v>
+                  <c:v>106942.181963838</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>117998.528480195</c:v>
+                  <c:v>169072.518419384</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35335.426175282199</c:v>
+                  <c:v>48985.302054562002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98625.635744640604</c:v>
+                  <c:v>148017.70422186199</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1847.92787929721</c:v>
+                  <c:v>2687.89509715957</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3763.2998266096702</c:v>
+                  <c:v>5558.1043593004397</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.419983686075497</c:v>
+                  <c:v>77.556105092264204</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.634815326471301</c:v>
+                  <c:v>24.702551946959499</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.81948827239012</c:v>
+                  <c:v>7.0829647795533202</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>149.59881534748899</c:v>
+                  <c:v>201.865867666329</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100386.807811509</c:v>
+                  <c:v>152298.24977862401</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>116237.35641332599</c:v>
+                  <c:v>169072.518419384</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49322.365702998097</c:v>
+                  <c:v>70670.852350564397</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8015.0531592658299</c:v>
+                  <c:v>12578.237764883101</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75730.398875349099</c:v>
+                  <c:v>100438.590990055</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>135610.249148881</c:v>
+                  <c:v>169072.518419384</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.05811709232868</c:v>
+                  <c:v>1.4805704843244301</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>1.0290058636159001</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1</c:v>
@@ -1678,7 +1696,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1610992169958501</c:v>
+                  <c:v>1.58069063527795</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1</c:v>
@@ -1912,82 +1930,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>344767.07679879398</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122835.842315576</c:v>
+                  <c:v>163781.123087435</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221005.46715996199</c:v>
+                  <c:v>298220.67964655801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44121.439780719898</c:v>
+                  <c:v>67232.670142049494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10690.348163034099</c:v>
+                  <c:v>15788.8219023273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42226.756770976201</c:v>
+                  <c:v>58750.270290053901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6736.0232481397497</c:v>
+                  <c:v>9509.6798797266893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1582.1578973184601</c:v>
+                  <c:v>2169.8165448938998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>380.93970284782199</c:v>
+                  <c:v>530.00306483175098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>265.19300967148399</c:v>
+                  <c:v>402.32807583968599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>429.71494765633003</c:v>
+                  <c:v>625.13159246784801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>805.73553331993401</c:v>
+                  <c:v>1190.0094030571299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2455.3471261223299</c:v>
+                  <c:v>3801.82780818942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256.71040966125099</c:v>
+                  <c:v>385.27189407726502</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>426.59937037940398</c:v>
+                  <c:v>660.54096058746495</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.826474471465</c:v>
+                  <c:v>154.153264179198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.29754198672902</c:v>
+                  <c:v>404.86085374301302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>204.64890233511099</c:v>
+                  <c:v>313.92137796702701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.961748604575099</c:v>
+                  <c:v>19.912691366365699</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1874787059938801</c:v>
+                  <c:v>1.5487456596844</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0386657509174</c:v>
+                  <c:v>1.3659680722679</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.17539734707288</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.38953135062361</c:v>
+                  <c:v>1.8916722715899801</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>10000000</c:v>
@@ -2002,28 +2020,28 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>250739.69221730399</c:v>
+                  <c:v>347599.02142978599</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2613.75661813022</c:v>
+                  <c:v>3801.82780818942</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5279.95204088012</c:v>
+                  <c:v>7798.0830142229397</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.228729609274495</c:v>
+                  <c:v>132.18240311166599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.871188632809101</c:v>
+                  <c:v>39.9034747336339</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.6968231499489601</c:v>
+                  <c:v>14.2509438684834</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>233.04635933338599</c:v>
+                  <c:v>314.468436291015</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10000000</c:v>
@@ -2032,10 +2050,10 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>349990.820386654</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12442.472933058199</c:v>
+                  <c:v>19526.306292080099</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10000000</c:v>
@@ -2044,22 +2062,22 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5455852091339199</c:v>
+                  <c:v>2.1626603125897299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>1.3808857370768199</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>1.17539734707288</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7494937856711701</c:v>
+                  <c:v>2.3817158800971701</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2280308794781101</c:v>
+                  <c:v>1.4321618778835501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,16 +2093,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="72851456"/>
-        <c:axId val="72853376"/>
+        <c:axId val="123834120"/>
+        <c:axId val="123833336"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="72851456"/>
+        <c:axId val="123834120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2098,7 +2117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72853376"/>
+        <c:crossAx val="123833336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2106,7 +2125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72853376"/>
+        <c:axId val="123833336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2129,7 +2148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72851456"/>
+        <c:crossAx val="123834120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,7 +2238,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>344767.07679879398</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000000</c:v>
@@ -2274,10 +2293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>221005.46715996199</c:v>
+                  <c:v>298220.67964655801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44121.439780719898</c:v>
+                  <c:v>67232.670142049494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,10 +2351,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6736.0232481397497</c:v>
+                  <c:v>9509.6798797266893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1582.1578973184601</c:v>
+                  <c:v>2169.8165448938998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,10 +2406,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.961748604575099</c:v>
+                  <c:v>19.912691366365699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1874787059938801</c:v>
+                  <c:v>1.5487456596844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,10 +2464,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2455.3471261223299</c:v>
+                  <c:v>3801.82780818942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256.71040966125099</c:v>
+                  <c:v>385.27189407726502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,10 +2577,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2613.75661813022</c:v>
+                  <c:v>3801.82780818942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5279.95204088012</c:v>
+                  <c:v>7798.0830142229397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,10 +2689,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.5455852091339199</c:v>
+                  <c:v>2.1626603125897299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.3808857370768199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,10 +2747,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>380.93970284782199</c:v>
+                  <c:v>530.00306483175098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265.19300967148399</c:v>
+                  <c:v>402.32807583968599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +2802,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0386657509174</c:v>
+                  <c:v>1.3659680722679</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2841,10 +2860,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>426.59937037940398</c:v>
+                  <c:v>660.54096058746495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118.826474471465</c:v>
+                  <c:v>154.153264179198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,10 +2973,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>84.228729609274495</c:v>
+                  <c:v>132.18240311166599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.871188632809101</c:v>
+                  <c:v>39.9034747336339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,10 +3030,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>349990.820386654</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12442.472933058199</c:v>
+                  <c:v>19526.306292080099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,7 +3088,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.17539734707288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3143,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>122835.842315576</c:v>
+                  <c:v>163781.123087435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000000</c:v>
@@ -3179,10 +3198,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10690.348163034099</c:v>
+                  <c:v>15788.8219023273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42226.756770976201</c:v>
+                  <c:v>58750.270290053901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,10 +3256,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>429.71494765633003</c:v>
+                  <c:v>625.13159246784801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>805.73553331993401</c:v>
+                  <c:v>1190.0094030571299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,10 +3311,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.17539734707288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.38953135062361</c:v>
+                  <c:v>1.8916722715899801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,10 +3369,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>316.29754198672902</c:v>
+                  <c:v>404.86085374301302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.64890233511099</c:v>
+                  <c:v>313.92137796702701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,7 +3427,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>250739.69221730399</c:v>
+                  <c:v>347599.02142978599</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000000</c:v>
@@ -3463,10 +3482,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.6968231499489601</c:v>
+                  <c:v>14.2509438684834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233.04635933338599</c:v>
+                  <c:v>314.468436291015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,10 +3594,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.7494937856711701</c:v>
+                  <c:v>2.3817158800971701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2280308794781101</c:v>
+                  <c:v>1.4321618778835501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,22 +3612,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70302336"/>
-        <c:axId val="70303744"/>
+        <c:axId val="123832552"/>
+        <c:axId val="123833728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70302336"/>
+        <c:axId val="123832552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70303744"/>
+        <c:crossAx val="123833728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3616,7 +3635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70303744"/>
+        <c:axId val="123833728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3640,7 +3659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70302336"/>
+        <c:crossAx val="123832552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3786,79 +3805,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>344767.07679879398</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221005.46715996199</c:v>
+                  <c:v>298220.67964655801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6736.0232481397497</c:v>
+                  <c:v>9509.6798797266893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.961748604575099</c:v>
+                  <c:v>19.912691366365699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2455.3471261223299</c:v>
+                  <c:v>3801.82780818942</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2613.75661813022</c:v>
+                  <c:v>3801.82780818942</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5455852091339199</c:v>
+                  <c:v>2.1626603125897299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>380.93970284782199</c:v>
+                  <c:v>530.00306483175098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0386657509174</c:v>
+                  <c:v>1.3659680722679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>426.59937037940398</c:v>
+                  <c:v>660.54096058746495</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.228729609274495</c:v>
+                  <c:v>132.18240311166599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>349990.820386654</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122835.842315576</c:v>
+                  <c:v>163781.123087435</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10690.348163034099</c:v>
+                  <c:v>15788.8219023273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>429.71494765633003</c:v>
+                  <c:v>625.13159246784801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.17539734707288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>316.29754198672902</c:v>
+                  <c:v>404.86085374301302</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>250739.69221730399</c:v>
+                  <c:v>347599.02142978599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6968231499489601</c:v>
+                  <c:v>14.2509438684834</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7494937856711701</c:v>
+                  <c:v>2.3817158800971701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,76 +3892,76 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44121.439780719898</c:v>
+                  <c:v>67232.670142049494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1582.1578973184601</c:v>
+                  <c:v>2169.8165448938998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1874787059938801</c:v>
+                  <c:v>1.5487456596844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.71040966125099</c:v>
+                  <c:v>385.27189407726502</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5279.95204088012</c:v>
+                  <c:v>7798.0830142229397</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.3808857370768199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265.19300967148399</c:v>
+                  <c:v>402.32807583968599</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.826474471465</c:v>
+                  <c:v>154.153264179198</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.871188632809101</c:v>
+                  <c:v>39.9034747336339</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12442.472933058199</c:v>
+                  <c:v>19526.306292080099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.17539734707288</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42226.756770976201</c:v>
+                  <c:v>58750.270290053901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>805.73553331993401</c:v>
+                  <c:v>1190.0094030571299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.38953135062361</c:v>
+                  <c:v>1.8916722715899801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>204.64890233511099</c:v>
+                  <c:v>313.92137796702701</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>233.04635933338599</c:v>
+                  <c:v>314.468436291015</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2280308794781101</c:v>
+                  <c:v>1.4321618778835501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,11 +3976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100645888"/>
-        <c:axId val="100644352"/>
+        <c:axId val="189696320"/>
+        <c:axId val="189697104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100645888"/>
+        <c:axId val="189696320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3992,12 +4011,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100644352"/>
+        <c:crossAx val="189697104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100644352"/>
+        <c:axId val="189697104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4041,7 +4060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100645888"/>
+        <c:crossAx val="189696320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4219,43 +4238,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4956105.5855424497</c:v>
+                  <c:v>7154965.0832727598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>718310.16389982705</c:v>
+                  <c:v>1030993.45000213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132232.276313585</c:v>
+                  <c:v>191817.92352838299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26442.7839879243</c:v>
+                  <c:v>37750.352965313599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4927.0167135136699</c:v>
+                  <c:v>6885.8121579504996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>436.082427888947</c:v>
+                  <c:v>632.03234360891702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>831.88974049980402</c:v>
+                  <c:v>1220.7319842033801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1573.34097431122</c:v>
+                  <c:v>2407.88729524478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>365.71471082240203</c:v>
+                  <c:v>531.15803056064306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>356.89932541872798</c:v>
+                  <c:v>496.13052459705602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3137195454612591</c:v>
+                  <c:v>13.1052457815096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0507191531147699</c:v>
+                  <c:v>1.4122819579325701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.21348776321126</c:v>
+                  <c:v>1.7686078074843601</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10000000</c:v>
@@ -4264,34 +4283,34 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3878200.4923439599</c:v>
+                  <c:v>5617819.0077623297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4945.2017410361796</c:v>
+                  <c:v>7260.2480882025602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.817512219372901</c:v>
+                  <c:v>109.005618294277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.902279144613</c:v>
+                  <c:v>171.73688283802201</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43982.781565694699</c:v>
+                  <c:v>65450.852601543702</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.44613287841559</c:v>
+                  <c:v>2.1084475747215601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.3029348115245201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0508941325717598</c:v>
+                  <c:v>2.6463427506580102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4441,79 +4460,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>98378.416075270099</c:v>
+                  <c:v>142020.07789375301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74861.106023067099</c:v>
+                  <c:v>107322.379913218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33195.367089485997</c:v>
+                  <c:v>48181.645109024903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13160.3697448441</c:v>
+                  <c:v>18805.942617763401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3073.7187615418902</c:v>
+                  <c:v>4296.09158585362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>232.57971794090199</c:v>
+                  <c:v>337.40980930143797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>422.89378281005497</c:v>
+                  <c:v>620.53026446754097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>809.52796955121505</c:v>
+                  <c:v>1241.41966571692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>192.09162720955999</c:v>
+                  <c:v>280.01841630922002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187.268407783008</c:v>
+                  <c:v>260.673576238213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.53209249345191</c:v>
+                  <c:v>4.9672919039512697</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.14476099435014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265020.73422094702</c:v>
+                  <c:v>334806.95483181498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>197251.271489281</c:v>
+                  <c:v>276014.70038322202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76926.052024346107</c:v>
+                  <c:v>111381.94081733499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3099.2842867930699</c:v>
+                  <c:v>4550.19262818269</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.439224432273697</c:v>
+                  <c:v>54.4884313425285</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.452739034964303</c:v>
+                  <c:v>80.579772133699706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>216624.16422483599</c:v>
+                  <c:v>321370.76819800801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18662.379517612098</c:v>
+                  <c:v>27829.472391768701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>211340.64802423</c:v>
+                  <c:v>269511.10940943903</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.32783326937543</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.11630687807042</c:v>
+                  <c:v>1.4384510239295401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4669,43 +4688,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>698264.86193096195</c:v>
+                  <c:v>1008042.0122462499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231891.123886085</c:v>
+                  <c:v>332638.949507071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66253.293905343293</c:v>
+                  <c:v>96135.8576026378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18654.672721978499</c:v>
+                  <c:v>26644.529863857701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3891.5631449017301</c:v>
+                  <c:v>5438.9410433961903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>318.47123587130301</c:v>
+                  <c:v>461.79423180614299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>593.12814740225997</c:v>
+                  <c:v>870.34541476457105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1128.5670225316201</c:v>
+                  <c:v>1728.9299121557201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>265.048550074037</c:v>
+                  <c:v>385.66051201479797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>258.52653328042499</c:v>
+                  <c:v>359.62218803579901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7355835703649198</c:v>
+                  <c:v>8.0683072121594606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.1330365461621601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.4228960722102</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10000000</c:v>
@@ -4714,34 +4733,34 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>546200.19483234896</c:v>
+                  <c:v>791026.91752245906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3914.9183964694798</c:v>
+                  <c:v>5747.6540718554697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0970828419943</c:v>
+                  <c:v>77.068444569600302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85.445189026137101</c:v>
+                  <c:v>117.63723426721501</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28650.0150404712</c:v>
+                  <c:v>42678.597627996001</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.14755589876294</c:v>
+                  <c:v>1.6732204984547701</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.07902564601285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5130853334773</c:v>
+                  <c:v>1.9510598246472499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,16 +4776,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="74195712"/>
-        <c:axId val="74197248"/>
+        <c:axId val="530850584"/>
+        <c:axId val="530850976"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="74195712"/>
+        <c:axId val="530850584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4780,7 +4800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74197248"/>
+        <c:crossAx val="530850976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4788,7 +4808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74197248"/>
+        <c:axId val="530850976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4811,7 +4831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74195712"/>
+        <c:crossAx val="530850584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4912,34 +4932,34 @@
             <c:numRef>
               <c:f>'1Bin'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>928071.33154618996</c:v>
+                  <c:v>1335855.4342054899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38454.858955935102</c:v>
+                  <c:v>55329.051098665303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1891.6022002161101</c:v>
+                  <c:v>2701.27781884157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>575.960409920384</c:v>
+                  <c:v>852.43354824394601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2615385976281401</c:v>
+                  <c:v>3.1860980145466602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13713281.8429213</c:v>
+                  <c:v>18620769.058637999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1128.96426329162</c:v>
+                  <c:v>1655.2149566692999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137709.09634805599</c:v>
+                  <c:v>194799.108653517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1523806577792299</c:v>
+                  <c:v>1.6312151375067401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5007,34 +5027,34 @@
             <c:numRef>
               <c:f>'1Bin'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>130856.361822142</c:v>
+                  <c:v>188255.08103164201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20700.465452613498</c:v>
+                  <c:v>29793.682883257399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1348.82135445929</c:v>
+                  <c:v>1923.66623024713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397.32614255258301</c:v>
+                  <c:v>587.70961957203394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.60803709490224</c:v>
+                  <c:v>2.2624215821151501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>271921.86801605899</c:v>
+                  <c:v>369080.75018223899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>758.01971439059105</c:v>
+                  <c:v>1114.23004653203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58531.243391171403</c:v>
+                  <c:v>82922.111734962702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.25711153949988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5071,6 +5091,13 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5078,6 +5105,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5118,34 +5151,34 @@
             <c:numRef>
               <c:f>'1Bin'!$G$2:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>348488.21781742602</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28214.065274299999</c:v>
+                  <c:v>40601.184744600498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1597.320707245</c:v>
+                  <c:v>2279.55191180661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>478.37655454324999</c:v>
+                  <c:v>707.80180583895697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9069971044915699</c:v>
+                  <c:v>2.68482716591675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1931046.6631746199</c:v>
+                  <c:v>2621558.20327002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>925.082249541897</c:v>
+                  <c:v>1358.0464786560699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89779.087963324506</c:v>
+                  <c:v>127095.056763188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0118540873648501</c:v>
+                  <c:v>1.43199838434497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5161,16 +5194,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="188715008"/>
-        <c:axId val="101187584"/>
+        <c:axId val="530852152"/>
+        <c:axId val="530852544"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="188715008"/>
+        <c:axId val="530852152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5184,7 +5218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101187584"/>
+        <c:crossAx val="530852544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5192,7 +5226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101187584"/>
+        <c:axId val="530852544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5215,7 +5249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188715008"/>
+        <c:crossAx val="530852152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5352,31 +5386,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5116900.7297785925</c:v>
+                  <c:v>5166315.1268805107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79511.002968673041</c:v>
+                  <c:v>109998.11049524718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1699.9607231589632</c:v>
+                  <c:v>2404.4947601361673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>629.73830415938164</c:v>
+                  <c:v>953.42935979056472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2629040686849984</c:v>
+                  <c:v>4.4824124528301432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8375123.2820362179</c:v>
+                  <c:v>8391266.5035716314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1374.5919599559595</c:v>
+                  <c:v>2016.7860134028597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6727072.2155532865</c:v>
+                  <c:v>6753500.948454448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2538516457138666</c:v>
+                  <c:v>1.5888035257866917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5444,31 +5478,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5172383.5383993965</c:v>
+                  <c:v>5250739.6922173044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43174.098275848053</c:v>
+                  <c:v>62991.470216051697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.72524048813204</c:v>
+                  <c:v>907.57049776248891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.50397582399</c:v>
+                  <c:v>395.06637391013902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.11307222845564</c:v>
+                  <c:v>1.45735686597615</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158.63754447133024</c:v>
+                  <c:v>223.32541970134048</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1140154397390551</c:v>
+                  <c:v>1.4065238074801849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,31 +5570,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>348488.21781742602</c:v>
+                  <c:v>501479.38443460898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28214.065274299999</c:v>
+                  <c:v>40601.184744600498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1597.320707245</c:v>
+                  <c:v>2279.55191180661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>478.37655454324999</c:v>
+                  <c:v>707.80180583895697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9069971044915699</c:v>
+                  <c:v>2.68482716591675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1931046.6631746199</c:v>
+                  <c:v>2621558.20327002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>925.082249541897</c:v>
+                  <c:v>1358.0464786560699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89779.087963324506</c:v>
+                  <c:v>127095.056763188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0118540873648501</c:v>
+                  <c:v>1.43199838434497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,16 +5609,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176308224"/>
-        <c:axId val="148999168"/>
+        <c:axId val="527773680"/>
+        <c:axId val="527774072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176308224"/>
+        <c:axId val="527773680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5598,7 +5633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148999168"/>
+        <c:crossAx val="527774072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5606,7 +5641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148999168"/>
+        <c:axId val="527774072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5648,7 +5683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176308224"/>
+        <c:crossAx val="527773680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5764,6 +5799,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -5779,6 +5819,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -5794,6 +5839,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -5809,8 +5859,20 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5818,6 +5880,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5861,31 +5929,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5172383.5383993965</c:v>
+                  <c:v>5250739.6922173044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43174.098275848053</c:v>
+                  <c:v>62991.470216051697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.72524048813204</c:v>
+                  <c:v>907.57049776248891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.50397582399</c:v>
+                  <c:v>395.06637391013902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.11307222845564</c:v>
+                  <c:v>1.45735686597615</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158.63754447133024</c:v>
+                  <c:v>223.32541970134048</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1140154397390551</c:v>
+                  <c:v>1.4065238074801849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,16 +5968,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176503040"/>
-        <c:axId val="176525312"/>
+        <c:axId val="527774856"/>
+        <c:axId val="527775248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176503040"/>
+        <c:axId val="527774856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5923,7 +5992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176525312"/>
+        <c:crossAx val="527775248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5931,7 +6000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176525312"/>
+        <c:axId val="527775248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5978,7 +6047,475 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176503040"/>
+        <c:crossAx val="527774856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Median</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tx Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21128012844548277"/>
+          <c:y val="0.13275208148650292"/>
+          <c:w val="0.74865814850066814"/>
+          <c:h val="0.68106192024010248"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3073714348416722E-3"/>
+                  <c:y val="-1.8609792981175374E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.8300220750551876E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.8300220750551876E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.8300220750551876E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>MeanMedian!$L$8:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CSF2RB WT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSF2RB R461C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSF3R WT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSF3R W791X</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSF3R T618I</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IL7R WT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IL7R Ins</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Empty Vector</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BCR-ABL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MeanMedian!$N$8:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5250739.6922173044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62991.470216051697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>907.57049776248891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>395.06637391013902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.45735686597615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.32541970134048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4065238074801849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="712416184"/>
+        <c:axId val="712420104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712416184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712420104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712420104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ratio of transforming cells (1 in X cells)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="712416184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5999,16 +6536,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1325562</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>135730</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>159541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6035,15 +6572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6203,16 +6740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6228,6 +6765,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6523,21 +7092,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
     <col min="3" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -6550,1348 +7119,2107 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(A2,1)</f>
+        <f t="shared" ref="C2:C33" si="0">RIGHT(A2,1)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F2">
-        <v>2446462.3772858498</v>
+        <f>VLOOKUP($A2,$P$1:$S$52,2,0)</f>
+        <v>3558490.7305975901</v>
       </c>
       <c r="G2">
-        <v>48586.210991013097</v>
+        <f>VLOOKUP($A2,$P$1:$S$52,3,0)</f>
+        <v>70670.852350564397</v>
       </c>
       <c r="H2">
-        <v>344767.07679879398</v>
+        <f>VLOOKUP($A2,$P$1:$S$52,4,0)</f>
+        <v>501479.38443460898</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3558490.7305975901</v>
+      </c>
+      <c r="R2">
+        <v>70670.852350564397</v>
+      </c>
+      <c r="S2">
+        <v>501479.38443460898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f>RIGHT(A3,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F51" si="1">VLOOKUP($A3,$P$1:$S$52,2,0)</f>
         <v>10000000</v>
       </c>
       <c r="G3">
-        <v>117998.528480195</v>
+        <f t="shared" ref="G3:G51" si="2">VLOOKUP($A3,$P$1:$S$52,3,0)</f>
+        <v>169072.518419384</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H51" si="3">VLOOKUP($A3,$P$1:$S$52,4,0)</f>
         <v>10000000</v>
       </c>
       <c r="L3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>10000000</v>
+      </c>
+      <c r="R3">
+        <v>169072.518419384</v>
+      </c>
+      <c r="S3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="str">
-        <f>RIGHT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F4">
-        <v>380609.55553554802</v>
+        <f t="shared" si="1"/>
+        <v>507479.40738072997</v>
       </c>
       <c r="G4">
-        <v>39643.366641560497</v>
+        <f t="shared" si="2"/>
+        <v>52857.822188747297</v>
       </c>
       <c r="H4">
-        <v>122835.842315576</v>
+        <f t="shared" si="3"/>
+        <v>163781.123087435</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>825.56865258524601</v>
+      </c>
+      <c r="R4">
+        <v>340.25425729454298</v>
+      </c>
+      <c r="S4">
+        <v>530.00306483175098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" t="str">
-        <f>RIGHT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G5">
-        <v>109192.668145852</v>
+        <f t="shared" si="2"/>
+        <v>169072.518419384</v>
       </c>
       <c r="H5">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
       <c r="L5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>628.11018510180099</v>
+      </c>
+      <c r="R5">
+        <v>257.70618666632402</v>
+      </c>
+      <c r="S5">
+        <v>402.32807583968599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" t="str">
-        <f>RIGHT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F6">
-        <v>1568162.4363238299</v>
+        <f t="shared" si="1"/>
+        <v>2116049.3157312102</v>
       </c>
       <c r="G6">
-        <v>31146.911431633602</v>
+        <f t="shared" si="2"/>
+        <v>42029.064780148001</v>
       </c>
       <c r="H6">
-        <v>221005.46715996199</v>
+        <f t="shared" si="3"/>
+        <v>298220.67964655801</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>1.92625393731066</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1.3659680722679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f>RIGHT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F7">
-        <v>92485.769036600293</v>
+        <f t="shared" si="1"/>
+        <v>140930.69567481999</v>
       </c>
       <c r="G7">
-        <v>21048.659362429102</v>
+        <f t="shared" si="2"/>
+        <v>32074.147599892</v>
       </c>
       <c r="H7">
-        <v>44121.439780719898</v>
+        <f t="shared" si="3"/>
+        <v>67232.670142049494</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>1.29485023583615</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" t="str">
-        <f>RIGHT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F8">
-        <v>16028.978271923101</v>
+        <f t="shared" si="1"/>
+        <v>23673.567909301699</v>
       </c>
       <c r="G8">
-        <v>7129.8083950285099</v>
+        <f t="shared" si="2"/>
+        <v>10530.1785526575</v>
       </c>
       <c r="H8">
-        <v>10690.348163034099</v>
+        <f t="shared" si="3"/>
+        <v>15788.8219023273</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>1035.1727229928499</v>
+      </c>
+      <c r="R8">
+        <v>421.48942965996702</v>
+      </c>
+      <c r="S8">
+        <v>660.54096058746495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" t="str">
-        <f>RIGHT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F9">
-        <v>84650.360906671005</v>
+        <f t="shared" si="1"/>
+        <v>117774.41517449899</v>
       </c>
       <c r="G9">
-        <v>21064.2809823469</v>
+        <f t="shared" si="2"/>
+        <v>29306.825714569499</v>
       </c>
       <c r="H9">
-        <v>42226.756770976201</v>
+        <f t="shared" si="3"/>
+        <v>58750.270290053901</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>264.26406471997097</v>
+      </c>
+      <c r="R9">
+        <v>89.922286188560605</v>
+      </c>
+      <c r="S9">
+        <v>154.153264179198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" t="str">
-        <f>RIGHT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F10">
-        <v>9635.7814123041207</v>
+        <f t="shared" si="1"/>
+        <v>13603.4561114881</v>
       </c>
       <c r="G10">
-        <v>4708.9081059414902</v>
+        <f t="shared" si="2"/>
+        <v>6647.8702672115196</v>
       </c>
       <c r="H10">
-        <v>6736.0232481397497</v>
+        <f t="shared" si="3"/>
+        <v>9509.6798797266893</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>10000000</v>
+      </c>
+      <c r="R10">
+        <v>106942.181963838</v>
+      </c>
+      <c r="S10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" t="str">
-        <f>RIGHT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11">
-        <v>2449.84910531989</v>
+        <f t="shared" si="1"/>
+        <v>3359.79305872442</v>
       </c>
       <c r="G11">
-        <v>1021.78685479501</v>
+        <f t="shared" si="2"/>
+        <v>1401.3076865760199</v>
       </c>
       <c r="H11">
-        <v>1582.1578973184601</v>
+        <f t="shared" si="3"/>
+        <v>2169.8165448938998</v>
       </c>
       <c r="L11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>10000000</v>
+      </c>
+      <c r="R11">
+        <v>169072.518419384</v>
+      </c>
+      <c r="S11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" t="str">
-        <f>RIGHT(A12,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F12">
-        <v>593.37746904564597</v>
+        <f t="shared" si="1"/>
+        <v>825.56865258524601</v>
       </c>
       <c r="G12">
-        <v>244.55774743045299</v>
+        <f t="shared" si="2"/>
+        <v>340.25425729454298</v>
       </c>
       <c r="H12">
-        <v>380.93970284782199</v>
+        <f t="shared" si="3"/>
+        <v>530.00306483175098</v>
       </c>
       <c r="L12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>225.28449142191101</v>
+      </c>
+      <c r="R12">
+        <v>77.556105092264204</v>
+      </c>
+      <c r="S12">
+        <v>132.18240311166599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" t="str">
-        <f>RIGHT(A13,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F13">
-        <v>414.01642190845399</v>
+        <f t="shared" si="1"/>
+        <v>628.11018510180099</v>
       </c>
       <c r="G13">
-        <v>169.86604554099199</v>
+        <f t="shared" si="2"/>
+        <v>257.70618666632402</v>
       </c>
       <c r="H13">
-        <v>265.19300967148399</v>
+        <f t="shared" si="3"/>
+        <v>402.32807583968599</v>
       </c>
       <c r="L13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>64.458413010796093</v>
+      </c>
+      <c r="R13">
+        <v>24.702551946959499</v>
+      </c>
+      <c r="S13">
+        <v>39.9034747336339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" t="str">
-        <f>RIGHT(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F14">
-        <v>680.39609195626099</v>
+        <f t="shared" si="1"/>
+        <v>989.81218780801203</v>
       </c>
       <c r="G14">
-        <v>271.39329343936498</v>
+        <f t="shared" si="2"/>
+        <v>394.81177612776202</v>
       </c>
       <c r="H14">
-        <v>429.71494765633003</v>
+        <f t="shared" si="3"/>
+        <v>625.13159246784801</v>
       </c>
       <c r="L14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>3558490.7305975901</v>
+      </c>
+      <c r="R14">
+        <v>70670.852350564397</v>
+      </c>
+      <c r="S14">
+        <v>501479.38443460898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" t="str">
-        <f>RIGHT(A15,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F15">
-        <v>1322.5805031695299</v>
+        <f t="shared" si="1"/>
+        <v>1953.3496662196201</v>
       </c>
       <c r="G15">
-        <v>490.865960974431</v>
+        <f t="shared" si="2"/>
+        <v>724.97126543915999</v>
       </c>
       <c r="H15">
-        <v>805.73553331993401</v>
+        <f t="shared" si="3"/>
+        <v>1190.0094030571299</v>
       </c>
       <c r="L15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15">
+        <v>30312.405007687401</v>
+      </c>
+      <c r="R15">
+        <v>12578.237764883101</v>
+      </c>
+      <c r="S15">
+        <v>19526.306292080099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" t="str">
-        <f>RIGHT(A16,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F16">
-        <v>3472.9059897889601</v>
+        <f t="shared" si="1"/>
+        <v>5377.4028228990301</v>
       </c>
       <c r="G16">
-        <v>1735.9322502488899</v>
+        <f t="shared" si="2"/>
+        <v>2687.89509715957</v>
       </c>
       <c r="H16">
-        <v>2455.3471261223299</v>
+        <f t="shared" si="3"/>
+        <v>3801.82780818942</v>
       </c>
       <c r="L16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <v>1.28758621148876</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" t="str">
-        <f>RIGHT(A17,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F17">
-        <v>400.97546336908903</v>
+        <f t="shared" si="1"/>
+        <v>601.78539878679703</v>
       </c>
       <c r="G17">
-        <v>164.34979306399001</v>
+        <f t="shared" si="2"/>
+        <v>246.65675283103801</v>
       </c>
       <c r="H17">
-        <v>256.71040966125099</v>
+        <f t="shared" si="3"/>
+        <v>385.27189407726502</v>
       </c>
       <c r="L17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>1.5433118885677499</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1.17539734707288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" t="str">
-        <f>RIGHT(A18,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F18">
-        <v>668.549050266216</v>
+        <f t="shared" si="1"/>
+        <v>1035.1727229928499</v>
       </c>
       <c r="G18">
-        <v>272.21192332206198</v>
+        <f t="shared" si="2"/>
+        <v>421.48942965996702</v>
       </c>
       <c r="H18">
-        <v>426.59937037940398</v>
+        <f t="shared" si="3"/>
+        <v>660.54096058746495</v>
       </c>
       <c r="L18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>2116049.3157312102</v>
+      </c>
+      <c r="R18">
+        <v>42029.064780148001</v>
+      </c>
+      <c r="S18">
+        <v>298220.67964655801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" t="str">
-        <f>RIGHT(A19,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F19">
-        <v>203.70354988831099</v>
+        <f t="shared" si="1"/>
+        <v>264.26406471997097</v>
       </c>
       <c r="G19">
-        <v>69.315095603682096</v>
+        <f t="shared" si="2"/>
+        <v>89.922286188560605</v>
       </c>
       <c r="H19">
-        <v>118.826474471465</v>
+        <f t="shared" si="3"/>
+        <v>154.153264179198</v>
       </c>
       <c r="L19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>140930.69567481999</v>
+      </c>
+      <c r="R19">
+        <v>32074.147599892</v>
+      </c>
+      <c r="S19">
+        <v>67232.670142049494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" t="str">
-        <f>RIGHT(A20,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F20">
-        <v>495.92324158918399</v>
+        <f t="shared" si="1"/>
+        <v>634.781749234156</v>
       </c>
       <c r="G20">
-        <v>201.73310439384801</v>
+        <f t="shared" si="2"/>
+        <v>258.218373624126</v>
       </c>
       <c r="H20">
-        <v>316.29754198672902</v>
+        <f t="shared" si="3"/>
+        <v>404.86085374301302</v>
       </c>
       <c r="L20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>507479.40738072997</v>
+      </c>
+      <c r="R20">
+        <v>52857.822188747297</v>
+      </c>
+      <c r="S20">
+        <v>163781.123087435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" t="str">
-        <f>RIGHT(A21,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F21">
-        <v>325.237986316177</v>
+        <f t="shared" si="1"/>
+        <v>498.899117789591</v>
       </c>
       <c r="G21">
-        <v>128.770853925567</v>
+        <f t="shared" si="2"/>
+        <v>197.52817359416301</v>
       </c>
       <c r="H21">
-        <v>204.64890233511099</v>
+        <f t="shared" si="3"/>
+        <v>313.92137796702701</v>
       </c>
       <c r="L21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21">
+        <v>10000000</v>
+      </c>
+      <c r="R21">
+        <v>169072.518419384</v>
+      </c>
+      <c r="S21">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" t="str">
-        <f>RIGHT(A22,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F22">
-        <v>24.889093744942201</v>
+        <f t="shared" si="1"/>
+        <v>35.497619687062198</v>
       </c>
       <c r="G22">
-        <v>7.83196150470389</v>
+        <f t="shared" si="2"/>
+        <v>11.170193408676701</v>
       </c>
       <c r="H22">
-        <v>13.961748604575099</v>
+        <f t="shared" si="3"/>
+        <v>19.912691366365699</v>
       </c>
       <c r="L22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>23673.567909301699</v>
+      </c>
+      <c r="R22">
+        <v>10530.1785526575</v>
+      </c>
+      <c r="S22">
+        <v>15788.8219023273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" t="str">
-        <f>RIGHT(A23,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F23">
-        <v>1.71215580043071</v>
+        <f t="shared" si="1"/>
+        <v>2.2330454021919901</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.0741443573143401</v>
       </c>
       <c r="H23">
-        <v>1.1874787059938801</v>
+        <f t="shared" si="3"/>
+        <v>1.5487456596844</v>
       </c>
       <c r="L23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>117774.41517449899</v>
+      </c>
+      <c r="R23">
+        <v>29306.825714569499</v>
+      </c>
+      <c r="S23">
+        <v>58750.270290053901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" t="str">
-        <f>RIGHT(A24,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F24">
-        <v>1.46470040762562</v>
+        <f t="shared" si="1"/>
+        <v>1.92625393731066</v>
       </c>
       <c r="G24">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1.0386657509174</v>
+        <f t="shared" si="3"/>
+        <v>1.3659680722679</v>
       </c>
       <c r="L24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>989.81218780801203</v>
+      </c>
+      <c r="R24">
+        <v>394.81177612776202</v>
+      </c>
+      <c r="S24">
+        <v>625.13159246784801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" t="str">
-        <f>RIGHT(A25,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.29485023583615</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>1953.3496662196201</v>
+      </c>
+      <c r="R25">
+        <v>724.97126543915999</v>
+      </c>
+      <c r="S25">
+        <v>1190.0094030571299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>25</v>
       </c>
       <c r="C26" t="str">
-        <f>RIGHT(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.5433118885677499</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.17539734707288</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>1.5433118885677499</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1.17539734707288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" t="str">
-        <f>RIGHT(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F27">
-        <v>2.0161764795449</v>
+        <f t="shared" si="1"/>
+        <v>2.7447708461383802</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.30372412988023</v>
       </c>
       <c r="H27">
-        <v>1.38953135062361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.8916722715899801</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>2.7447708461383802</v>
+      </c>
+      <c r="R27">
+        <v>1.30372412988023</v>
+      </c>
+      <c r="S27">
+        <v>1.8916722715899801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>27</v>
       </c>
       <c r="C28" t="str">
-        <f>RIGHT(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F28">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G28">
-        <v>132932.82920580401</v>
+        <f t="shared" si="2"/>
+        <v>165734.43641243101</v>
       </c>
       <c r="H28">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>634.781749234156</v>
+      </c>
+      <c r="R28">
+        <v>258.218373624126</v>
+      </c>
+      <c r="S28">
+        <v>404.86085374301302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>28</v>
       </c>
       <c r="C29" t="str">
-        <f>RIGHT(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F29">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G29">
-        <v>132087.905015144</v>
+        <f t="shared" si="2"/>
+        <v>169072.518419384</v>
       </c>
       <c r="H29">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29">
+        <v>498.899117789591</v>
+      </c>
+      <c r="R29">
+        <v>197.52817359416301</v>
+      </c>
+      <c r="S29">
+        <v>313.92137796702701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>29</v>
       </c>
       <c r="C30" t="str">
-        <f>RIGHT(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F30">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G30">
-        <v>79252.743009086204</v>
+        <f t="shared" si="2"/>
+        <v>106942.181963838</v>
       </c>
       <c r="H30">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30">
+        <v>2466557.81696242</v>
+      </c>
+      <c r="R30">
+        <v>48985.302054562002</v>
+      </c>
+      <c r="S30">
+        <v>347599.02142978599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>30</v>
       </c>
       <c r="C31" t="str">
-        <f>RIGHT(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F31">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G31">
-        <v>117998.528480195</v>
+        <f t="shared" si="2"/>
+        <v>169072.518419384</v>
       </c>
       <c r="H31">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31">
+        <v>10000000</v>
+      </c>
+      <c r="R31">
+        <v>148017.70422186199</v>
+      </c>
+      <c r="S31">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" t="str">
-        <f>RIGHT(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F32">
-        <v>1779245.3652987899</v>
+        <f t="shared" si="1"/>
+        <v>2466557.81696242</v>
       </c>
       <c r="G32">
-        <v>35335.426175282199</v>
+        <f t="shared" si="2"/>
+        <v>48985.302054562002</v>
       </c>
       <c r="H32">
-        <v>250739.69221730399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>347599.02142978599</v>
+      </c>
+      <c r="P32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32">
+        <v>28.6729367522668</v>
+      </c>
+      <c r="R32">
+        <v>7.0829647795533202</v>
+      </c>
+      <c r="S32">
+        <v>14.2509438684834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>32</v>
       </c>
       <c r="C33" t="str">
-        <f>RIGHT(A33,1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F33">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G33">
-        <v>98625.635744640604</v>
+        <f t="shared" si="2"/>
+        <v>148017.70422186199</v>
       </c>
       <c r="H33">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33">
+        <v>489.88171485619898</v>
+      </c>
+      <c r="R33">
+        <v>201.865867666329</v>
+      </c>
+      <c r="S33">
+        <v>314.468436291015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>33</v>
       </c>
       <c r="C34" t="str">
-        <f>RIGHT(A34,1)</f>
+        <f t="shared" ref="C34:C51" si="4">RIGHT(A34,1)</f>
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F34">
-        <v>3696.9644407430901</v>
+        <f t="shared" si="1"/>
+        <v>5377.4028228990301</v>
       </c>
       <c r="G34">
-        <v>1847.92787929721</v>
+        <f t="shared" si="2"/>
+        <v>2687.89509715957</v>
       </c>
       <c r="H34">
-        <v>2613.75661813022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3801.82780818942</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34">
+        <v>10000000</v>
+      </c>
+      <c r="R34">
+        <v>100438.590990055</v>
+      </c>
+      <c r="S34">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" t="str">
-        <f>RIGHT(A35,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F35">
-        <v>7407.8321787900404</v>
+        <f t="shared" si="1"/>
+        <v>10940.798294828401</v>
       </c>
       <c r="G35">
-        <v>3763.2998266096702</v>
+        <f t="shared" si="2"/>
+        <v>5558.1043593004397</v>
       </c>
       <c r="H35">
-        <v>5279.95204088012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>7798.0830142229397</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>10000000</v>
+      </c>
+      <c r="R35">
+        <v>169072.518419384</v>
+      </c>
+      <c r="S35">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>35</v>
       </c>
       <c r="C36" t="str">
-        <f>RIGHT(A36,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F36">
-        <v>143.554861058993</v>
+        <f t="shared" si="1"/>
+        <v>225.28449142191101</v>
       </c>
       <c r="G36">
-        <v>49.419983686075497</v>
+        <f t="shared" si="2"/>
+        <v>77.556105092264204</v>
       </c>
       <c r="H36">
-        <v>84.228729609274495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>132.18240311166599</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>3.5886658697826301</v>
+      </c>
+      <c r="R36">
+        <v>1.58069063527795</v>
+      </c>
+      <c r="S36">
+        <v>2.3817158800971701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>36</v>
       </c>
       <c r="C37" t="str">
-        <f>RIGHT(A37,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F37">
-        <v>43.406600215812297</v>
+        <f t="shared" si="1"/>
+        <v>64.458413010796093</v>
       </c>
       <c r="G37">
-        <v>16.634815326471301</v>
+        <f t="shared" si="2"/>
+        <v>24.702551946959499</v>
       </c>
       <c r="H37">
-        <v>26.871188632809101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>39.9034747336339</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37">
+        <v>2.2473313921226898</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1.4321618778835501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38" t="str">
-        <f>RIGHT(A38,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F38">
-        <v>19.510033822481901</v>
+        <f t="shared" si="1"/>
+        <v>28.6729367522668</v>
       </c>
       <c r="G38">
-        <v>4.81948827239012</v>
+        <f t="shared" si="2"/>
+        <v>7.0829647795533202</v>
       </c>
       <c r="H38">
-        <v>9.6968231499489601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>14.2509438684834</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38">
+        <v>13603.4561114881</v>
+      </c>
+      <c r="R38">
+        <v>6647.8702672115196</v>
+      </c>
+      <c r="S38">
+        <v>9509.6798797266893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>38</v>
       </c>
       <c r="C39" t="str">
-        <f>RIGHT(A39,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="1">
-        <v>363.04168233145901</v>
-      </c>
-      <c r="G39" s="1">
-        <v>149.59881534748899</v>
-      </c>
-      <c r="H39" s="1">
-        <v>233.04635933338599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>489.88171485619898</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>201.865867666329</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>314.468436291015</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>3359.79305872442</v>
+      </c>
+      <c r="R39">
+        <v>1401.3076865760199</v>
+      </c>
+      <c r="S39">
+        <v>2169.8165448938998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>39</v>
       </c>
       <c r="C40" t="str">
-        <f>RIGHT(A40,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F40">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G40">
-        <v>100386.807811509</v>
+        <f t="shared" si="2"/>
+        <v>152298.24977862401</v>
       </c>
       <c r="H40">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40">
+        <v>35.497619687062198</v>
+      </c>
+      <c r="R40">
+        <v>11.170193408676701</v>
+      </c>
+      <c r="S40">
+        <v>19.912691366365699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
       <c r="C41" t="str">
-        <f>RIGHT(A41,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F41">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G41">
-        <v>116237.35641332599</v>
+        <f t="shared" si="2"/>
+        <v>169072.518419384</v>
       </c>
       <c r="H41">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41">
+        <v>2.2330454021919901</v>
+      </c>
+      <c r="R41">
+        <v>1.0741443573143401</v>
+      </c>
+      <c r="S41">
+        <v>1.5487456596844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>41</v>
       </c>
       <c r="C42" t="str">
-        <f>RIGHT(A42,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F42">
-        <v>2483529.9890629002</v>
+        <f t="shared" si="1"/>
+        <v>3558490.7305975901</v>
       </c>
       <c r="G42">
-        <v>49322.365702998097</v>
+        <f t="shared" si="2"/>
+        <v>70670.852350564397</v>
       </c>
       <c r="H42">
-        <v>349990.820386654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>501479.38443460898</v>
+      </c>
+      <c r="P42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42">
+        <v>5377.4028228990301</v>
+      </c>
+      <c r="R42">
+        <v>2687.89509715957</v>
+      </c>
+      <c r="S42">
+        <v>3801.82780818942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>42</v>
       </c>
       <c r="C43" t="str">
-        <f>RIGHT(A43,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F43">
-        <v>19315.5465863518</v>
+        <f t="shared" si="1"/>
+        <v>30312.405007687401</v>
       </c>
       <c r="G43">
-        <v>8015.0531592658299</v>
+        <f t="shared" si="2"/>
+        <v>12578.237764883101</v>
       </c>
       <c r="H43">
-        <v>12442.472933058199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19526.306292080099</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>601.78539878679703</v>
+      </c>
+      <c r="R43">
+        <v>246.65675283103801</v>
+      </c>
+      <c r="S43">
+        <v>385.27189407726502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>43</v>
       </c>
       <c r="C44" t="str">
-        <f>RIGHT(A44,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F44">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G44">
-        <v>75730.398875349099</v>
+        <f t="shared" si="2"/>
+        <v>100438.590990055</v>
       </c>
       <c r="H44">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>10000000</v>
+      </c>
+      <c r="R44">
+        <v>165734.43641243101</v>
+      </c>
+      <c r="S44">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>44</v>
       </c>
       <c r="C45" t="str">
-        <f>RIGHT(A45,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F45">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="G45">
-        <v>135610.249148881</v>
+        <f t="shared" si="2"/>
+        <v>169072.518419384</v>
       </c>
       <c r="H45">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45">
+        <v>10000000</v>
+      </c>
+      <c r="R45">
+        <v>169072.518419384</v>
+      </c>
+      <c r="S45">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>45</v>
       </c>
       <c r="C46" t="str">
-        <f>RIGHT(A46,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F46">
-        <v>2.2576269261809601</v>
+        <f t="shared" si="1"/>
+        <v>3.1589847813188201</v>
       </c>
       <c r="G46">
-        <v>1.05811709232868</v>
+        <f t="shared" si="2"/>
+        <v>1.4805704843244301</v>
       </c>
       <c r="H46">
-        <v>1.5455852091339199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.1626603125897299</v>
+      </c>
+      <c r="P46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46">
+        <v>5377.4028228990301</v>
+      </c>
+      <c r="R46">
+        <v>2687.89509715957</v>
+      </c>
+      <c r="S46">
+        <v>3801.82780818942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>46</v>
       </c>
       <c r="C47" t="str">
-        <f>RIGHT(A47,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F47">
-        <v>1.2214603397463</v>
+        <f t="shared" si="1"/>
+        <v>1.8530948037182</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.0290058636159001</v>
       </c>
       <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.3808857370768199</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>10940.798294828401</v>
+      </c>
+      <c r="R47">
+        <v>5558.1043593004397</v>
+      </c>
+      <c r="S47">
+        <v>7798.0830142229397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>47</v>
       </c>
       <c r="C48" t="str">
-        <f>RIGHT(A48,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1.28758621148876</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G48">
+      <c r="H48">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48">
+        <v>10000000</v>
+      </c>
+      <c r="R48">
+        <v>152298.24977862401</v>
+      </c>
+      <c r="S48">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>48</v>
       </c>
       <c r="C49" t="str">
-        <f>RIGHT(A49,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.5433118885677499</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
       <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.17539734707288</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <v>10000000</v>
+      </c>
+      <c r="R49">
+        <v>169072.518419384</v>
+      </c>
+      <c r="S49">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>49</v>
       </c>
       <c r="C50" t="str">
-        <f>RIGHT(A50,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F50">
-        <v>2.6360611232011402</v>
+        <f t="shared" si="1"/>
+        <v>3.5886658697826301</v>
       </c>
       <c r="G50">
-        <v>1.1610992169958501</v>
+        <f t="shared" si="2"/>
+        <v>1.58069063527795</v>
       </c>
       <c r="H50">
-        <v>1.7494937856711701</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.3817158800971701</v>
+      </c>
+      <c r="P50" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q50">
+        <v>3.1589847813188201</v>
+      </c>
+      <c r="R50">
+        <v>1.4805704843244301</v>
+      </c>
+      <c r="S50">
+        <v>2.1626603125897299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>50</v>
       </c>
       <c r="C51" t="str">
-        <f>RIGHT(A51,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F51">
-        <v>1.9270114562926499</v>
+        <f t="shared" si="1"/>
+        <v>2.2473313921226898</v>
       </c>
       <c r="G51">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1.2280308794781101</v>
+        <f t="shared" si="3"/>
+        <v>1.4321618778835501</v>
+      </c>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51">
+        <v>1.8530948037182</v>
+      </c>
+      <c r="R51">
+        <v>1.0290058636159001</v>
+      </c>
+      <c r="S51">
+        <v>1.3808857370768199</v>
       </c>
     </row>
   </sheetData>
@@ -7901,15 +9229,15 @@
     </sortState>
   </autoFilter>
   <mergeCells count="9">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D27"/>
     <mergeCell ref="D28:D33"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D51"/>
     <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7919,27 +9247,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7950,13 +9285,24 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>344767.07679879398</v>
+        <f>VLOOKUP($A3,$I$2:$K$27,2,0)</f>
+        <v>501479.38443460898</v>
       </c>
       <c r="E3">
+        <f>VLOOKUP($A3,$I$2:$K$27,3,0)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>501479.38443460898</v>
+      </c>
+      <c r="K3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -7967,13 +9313,24 @@
         <v>64</v>
       </c>
       <c r="D4">
-        <v>221005.46715996199</v>
+        <f t="shared" ref="D4:D27" si="0">VLOOKUP($A4,$I$2:$K$27,2,0)</f>
+        <v>298220.67964655801</v>
       </c>
       <c r="E4">
-        <v>44121.439780719898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E4:E27" si="1">VLOOKUP($A4,$I$2:$K$27,3,0)</f>
+        <v>67232.670142049494</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>530.00306483175098</v>
+      </c>
+      <c r="K4">
+        <v>402.32807583968599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -7984,13 +9341,24 @@
         <v>57</v>
       </c>
       <c r="D5">
-        <v>6736.0232481397497</v>
+        <f t="shared" si="0"/>
+        <v>9509.6798797266893</v>
       </c>
       <c r="E5">
-        <v>1582.1578973184601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2169.8165448938998</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>1.3659680722679</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -8001,13 +9369,24 @@
         <v>58</v>
       </c>
       <c r="D6">
-        <v>13.961748604575099</v>
+        <f t="shared" si="0"/>
+        <v>19.912691366365699</v>
       </c>
       <c r="E6">
-        <v>1.1874787059938801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.5487456596844</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>660.54096058746495</v>
+      </c>
+      <c r="K6">
+        <v>154.153264179198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -8018,13 +9397,24 @@
         <v>59</v>
       </c>
       <c r="D7">
-        <v>2455.3471261223299</v>
+        <f t="shared" si="0"/>
+        <v>3801.82780818942</v>
       </c>
       <c r="E7">
-        <v>256.71040966125099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>385.27189407726502</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>10000000</v>
+      </c>
+      <c r="K7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -8035,13 +9425,24 @@
         <v>60</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>132.18240311166599</v>
+      </c>
+      <c r="K8">
+        <v>39.9034747336339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8052,13 +9453,24 @@
         <v>61</v>
       </c>
       <c r="D9">
-        <v>2613.75661813022</v>
+        <f t="shared" si="0"/>
+        <v>3801.82780818942</v>
       </c>
       <c r="E9">
-        <v>5279.95204088012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7798.0830142229397</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>501479.38443460898</v>
+      </c>
+      <c r="K9">
+        <v>19526.306292080099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -8069,13 +9481,24 @@
         <v>62</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1.17539734707288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -8086,13 +9509,24 @@
         <v>63</v>
       </c>
       <c r="D11">
-        <v>1.5455852091339199</v>
+        <f t="shared" si="0"/>
+        <v>2.1626603125897299</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.3808857370768199</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>298220.67964655801</v>
+      </c>
+      <c r="K11">
+        <v>67232.670142049494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -8103,13 +9537,24 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>380.93970284782199</v>
+        <f t="shared" si="0"/>
+        <v>530.00306483175098</v>
       </c>
       <c r="E12">
-        <v>265.19300967148399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>402.32807583968599</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>163781.123087435</v>
+      </c>
+      <c r="K12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -8120,13 +9565,24 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>1.0386657509174</v>
+        <f t="shared" si="0"/>
+        <v>1.3659680722679</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>15788.8219023273</v>
+      </c>
+      <c r="K13">
+        <v>58750.270290053901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -8137,13 +9593,24 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>426.59937037940398</v>
+        <f t="shared" si="0"/>
+        <v>660.54096058746495</v>
       </c>
       <c r="E14">
-        <v>118.826474471465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>154.153264179198</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>625.13159246784801</v>
+      </c>
+      <c r="K14">
+        <v>1190.0094030571299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8154,13 +9621,24 @@
         <v>60</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>1.17539734707288</v>
+      </c>
+      <c r="K15">
+        <v>1.8916722715899801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -8171,13 +9649,24 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>84.228729609274495</v>
+        <f t="shared" si="0"/>
+        <v>132.18240311166599</v>
       </c>
       <c r="E16">
-        <v>26.871188632809101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>39.9034747336339</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16">
+        <v>404.86085374301302</v>
+      </c>
+      <c r="K16">
+        <v>313.92137796702701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -8188,13 +9677,24 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>349990.820386654</v>
+        <f t="shared" si="0"/>
+        <v>501479.38443460898</v>
       </c>
       <c r="E17">
-        <v>12442.472933058199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>19526.306292080099</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>347599.02142978599</v>
+      </c>
+      <c r="K17">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8205,13 +9705,24 @@
         <v>63</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.17539734707288</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>14.2509438684834</v>
+      </c>
+      <c r="K18">
+        <v>314.468436291015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -8222,13 +9733,24 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>122835.842315576</v>
+        <f t="shared" si="0"/>
+        <v>163781.123087435</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19">
+        <v>10000000</v>
+      </c>
+      <c r="K19">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -8239,13 +9761,24 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>10690.348163034099</v>
+        <f t="shared" si="0"/>
+        <v>15788.8219023273</v>
       </c>
       <c r="E20">
-        <v>42226.756770976201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>58750.270290053901</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>2.3817158800971701</v>
+      </c>
+      <c r="K20">
+        <v>1.4321618778835501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -8256,13 +9789,24 @@
         <v>57</v>
       </c>
       <c r="D21">
-        <v>429.71494765633003</v>
+        <f t="shared" si="0"/>
+        <v>625.13159246784801</v>
       </c>
       <c r="E21">
-        <v>805.73553331993401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1190.0094030571299</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>9509.6798797266893</v>
+      </c>
+      <c r="K21">
+        <v>2169.8165448938998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8273,13 +9817,24 @@
         <v>58</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.17539734707288</v>
       </c>
       <c r="E22">
-        <v>1.38953135062361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.8916722715899801</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>19.912691366365699</v>
+      </c>
+      <c r="K22">
+        <v>1.5487456596844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -8290,13 +9845,24 @@
         <v>59</v>
       </c>
       <c r="D23">
-        <v>316.29754198672902</v>
+        <f t="shared" si="0"/>
+        <v>404.86085374301302</v>
       </c>
       <c r="E23">
-        <v>204.64890233511099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>313.92137796702701</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>3801.82780818942</v>
+      </c>
+      <c r="K23">
+        <v>385.27189407726502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -8307,13 +9873,24 @@
         <v>60</v>
       </c>
       <c r="D24">
-        <v>250739.69221730399</v>
+        <f t="shared" si="0"/>
+        <v>347599.02142978599</v>
       </c>
       <c r="E24">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>10000000</v>
+      </c>
+      <c r="K24">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8324,13 +9901,24 @@
         <v>61</v>
       </c>
       <c r="D25">
-        <v>9.6968231499489601</v>
-      </c>
-      <c r="E25" s="1">
-        <v>233.04635933338599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14.2509438684834</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>314.468436291015</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25">
+        <v>3801.82780818942</v>
+      </c>
+      <c r="K25">
+        <v>7798.0830142229397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -8341,13 +9929,24 @@
         <v>62</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E26">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26">
+        <v>10000000</v>
+      </c>
+      <c r="K26">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -8358,18 +9957,24 @@
         <v>63</v>
       </c>
       <c r="D27">
-        <v>1.7494937856711701</v>
+        <f t="shared" si="0"/>
+        <v>2.3817158800971701</v>
       </c>
       <c r="E27">
-        <v>1.2280308794781101</v>
+        <f t="shared" si="1"/>
+        <v>1.4321618778835501</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27">
+        <v>2.1626603125897299</v>
+      </c>
+      <c r="K27">
+        <v>1.3808857370768199</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E27">
-    <sortState ref="A3:E27">
-      <sortCondition ref="B2:B27"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8377,10 +9982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,9 +9993,10 @@
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -8403,8 +10009,20 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8414,23 +10032,38 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
       </c>
       <c r="F2">
-        <v>4956105.5855424497</v>
+        <f>VLOOKUP($B2,$L$1:$O$26,2,0)</f>
+        <v>7154965.0832727598</v>
       </c>
       <c r="G2">
-        <v>98378.416075270099</v>
+        <f>VLOOKUP($B2,$L$1:$O$26,3,0)</f>
+        <v>142020.07789375301</v>
       </c>
       <c r="H2">
-        <v>698264.86193096195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>VLOOKUP($B2,$L$1:$O$26,4,0)</f>
+        <v>1008042.0122462499</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2">
+        <v>191817.92352838299</v>
+      </c>
+      <c r="N2">
+        <v>48181.645109024903</v>
+      </c>
+      <c r="O2">
+        <v>96135.8576026378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -8440,21 +10073,36 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="5"/>
       <c r="E3" t="s">
         <v>65</v>
       </c>
       <c r="F3">
-        <v>718310.16389982705</v>
+        <f t="shared" ref="F3:F26" si="0">VLOOKUP($B3,$L$1:$O$26,2,0)</f>
+        <v>1030993.45000213</v>
       </c>
       <c r="G3">
-        <v>74861.106023067099</v>
+        <f t="shared" ref="G3:G26" si="1">VLOOKUP($B3,$L$1:$O$26,3,0)</f>
+        <v>107322.379913218</v>
       </c>
       <c r="H3">
-        <v>231891.123886085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H26" si="2">VLOOKUP($B3,$L$1:$O$26,4,0)</f>
+        <v>332638.949507071</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3">
+        <v>37750.352965313599</v>
+      </c>
+      <c r="N3">
+        <v>18805.942617763401</v>
+      </c>
+      <c r="O3">
+        <v>26644.529863857701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8464,26 +10112,38 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
       <c r="F4">
-        <v>132232.276313585</v>
+        <f t="shared" si="0"/>
+        <v>191817.92352838299</v>
       </c>
       <c r="G4">
-        <v>33195.367089485997</v>
+        <f t="shared" si="1"/>
+        <v>48181.645109024903</v>
       </c>
       <c r="H4">
-        <v>66253.293905343293</v>
+        <f t="shared" si="2"/>
+        <v>96135.8576026378</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M4">
+        <v>7154965.0832727598</v>
+      </c>
+      <c r="N4">
+        <v>142020.07789375301</v>
+      </c>
+      <c r="O4">
+        <v>1008042.0122462499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8493,24 +10153,36 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
       <c r="E5" t="s">
         <v>65</v>
       </c>
       <c r="F5">
-        <v>26442.7839879243</v>
+        <f t="shared" si="0"/>
+        <v>37750.352965313599</v>
       </c>
       <c r="G5">
-        <v>13160.3697448441</v>
+        <f t="shared" si="1"/>
+        <v>18805.942617763401</v>
       </c>
       <c r="H5">
-        <v>18654.672721978499</v>
+        <f t="shared" si="2"/>
+        <v>26644.529863857701</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="M5">
+        <v>1030993.45000213</v>
+      </c>
+      <c r="N5">
+        <v>107322.379913218</v>
+      </c>
+      <c r="O5">
+        <v>332638.949507071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -8520,26 +10192,38 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
       </c>
       <c r="F6">
-        <v>4927.0167135136699</v>
+        <f t="shared" si="0"/>
+        <v>6885.8121579504996</v>
       </c>
       <c r="G6">
-        <v>3073.7187615418902</v>
+        <f t="shared" si="1"/>
+        <v>4296.09158585362</v>
       </c>
       <c r="H6">
-        <v>3891.5631449017301</v>
+        <f t="shared" si="2"/>
+        <v>5438.9410433961903</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="M6">
+        <v>1.4122819579325701</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1.1330365461621601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -8549,24 +10233,36 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="5"/>
       <c r="E7" t="s">
         <v>65</v>
       </c>
       <c r="F7">
-        <v>436.082427888947</v>
+        <f t="shared" si="0"/>
+        <v>632.03234360891702</v>
       </c>
       <c r="G7">
-        <v>232.57971794090199</v>
+        <f t="shared" si="1"/>
+        <v>337.40980930143797</v>
       </c>
       <c r="H7">
-        <v>318.47123587130301</v>
+        <f t="shared" si="2"/>
+        <v>461.79423180614299</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M7">
+        <v>1.7686078074843601</v>
+      </c>
+      <c r="N7">
+        <v>1.14476099435014</v>
+      </c>
+      <c r="O7">
+        <v>1.4228960722102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -8576,24 +10272,36 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
         <v>65</v>
       </c>
       <c r="F8">
-        <v>831.88974049980402</v>
+        <f t="shared" si="0"/>
+        <v>1220.7319842033801</v>
       </c>
       <c r="G8">
-        <v>422.89378281005497</v>
+        <f t="shared" si="1"/>
+        <v>620.53026446754097</v>
       </c>
       <c r="H8">
-        <v>593.12814740225997</v>
+        <f t="shared" si="2"/>
+        <v>870.34541476457105</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>13.1052457815096</v>
+      </c>
+      <c r="N8">
+        <v>4.9672919039512697</v>
+      </c>
+      <c r="O8">
+        <v>8.0683072121594606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8603,26 +10311,38 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>65</v>
       </c>
       <c r="F9">
-        <v>1573.34097431122</v>
+        <f t="shared" si="0"/>
+        <v>2407.88729524478</v>
       </c>
       <c r="G9">
-        <v>809.52796955121505</v>
+        <f t="shared" si="1"/>
+        <v>1241.41966571692</v>
       </c>
       <c r="H9">
-        <v>1128.5670225316201</v>
+        <f t="shared" si="2"/>
+        <v>1728.9299121557201</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="M9">
+        <v>531.15803056064306</v>
+      </c>
+      <c r="N9">
+        <v>280.01841630922002</v>
+      </c>
+      <c r="O9">
+        <v>385.66051201479797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8632,24 +10352,36 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="5"/>
       <c r="E10" t="s">
         <v>65</v>
       </c>
       <c r="F10">
-        <v>365.71471082240203</v>
+        <f t="shared" si="0"/>
+        <v>531.15803056064306</v>
       </c>
       <c r="G10">
-        <v>192.09162720955999</v>
+        <f t="shared" si="1"/>
+        <v>280.01841630922002</v>
       </c>
       <c r="H10">
-        <v>265.048550074037</v>
+        <f t="shared" si="2"/>
+        <v>385.66051201479797</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="M10">
+        <v>496.13052459705602</v>
+      </c>
+      <c r="N10">
+        <v>260.673576238213</v>
+      </c>
+      <c r="O10">
+        <v>359.62218803579901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8659,24 +10391,36 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="5"/>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11">
-        <v>356.89932541872798</v>
+        <f t="shared" si="0"/>
+        <v>496.13052459705602</v>
       </c>
       <c r="G11">
-        <v>187.268407783008</v>
+        <f t="shared" si="1"/>
+        <v>260.673576238213</v>
       </c>
       <c r="H11">
-        <v>258.52653328042499</v>
+        <f t="shared" si="2"/>
+        <v>359.62218803579901</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M11">
+        <v>2407.88729524478</v>
+      </c>
+      <c r="N11">
+        <v>1241.41966571692</v>
+      </c>
+      <c r="O11">
+        <v>1728.9299121557201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -8686,26 +10430,38 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
       </c>
       <c r="F12">
-        <v>9.3137195454612591</v>
+        <f t="shared" si="0"/>
+        <v>13.1052457815096</v>
       </c>
       <c r="G12">
-        <v>3.53209249345191</v>
+        <f t="shared" si="1"/>
+        <v>4.9672919039512697</v>
       </c>
       <c r="H12">
-        <v>5.7355835703649198</v>
+        <f t="shared" si="2"/>
+        <v>8.0683072121594606</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M12">
+        <v>632.03234360891702</v>
+      </c>
+      <c r="N12">
+        <v>337.40980930143797</v>
+      </c>
+      <c r="O12">
+        <v>461.79423180614299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8715,21 +10471,36 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="5"/>
       <c r="E13" t="s">
         <v>65</v>
       </c>
       <c r="F13">
-        <v>1.0507191531147699</v>
+        <f t="shared" si="0"/>
+        <v>1.4122819579325701</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.1330365461621601</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>1220.7319842033801</v>
+      </c>
+      <c r="N13">
+        <v>620.53026446754097</v>
+      </c>
+      <c r="O13">
+        <v>870.34541476457105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8739,21 +10510,36 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="5"/>
       <c r="E14" t="s">
         <v>65</v>
       </c>
       <c r="F14">
-        <v>1.21348776321126</v>
+        <f t="shared" si="0"/>
+        <v>1.7686078074843601</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.14476099435014</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.4228960722102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14">
+        <v>6885.8121579504996</v>
+      </c>
+      <c r="N14">
+        <v>4296.09158585362</v>
+      </c>
+      <c r="O14">
+        <v>5438.9410433961903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -8763,23 +10549,38 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>65</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="G15">
-        <v>265020.73422094702</v>
+        <f t="shared" si="1"/>
+        <v>334806.95483181498</v>
       </c>
       <c r="H15">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15">
+        <v>109.005618294277</v>
+      </c>
+      <c r="N15">
+        <v>54.4884313425285</v>
+      </c>
+      <c r="O15">
+        <v>77.068444569600302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -8789,21 +10590,36 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="5"/>
       <c r="E16" t="s">
         <v>65</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="G16">
-        <v>197251.271489281</v>
+        <f t="shared" si="1"/>
+        <v>276014.70038322202</v>
       </c>
       <c r="H16">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16">
+        <v>171.73688283802201</v>
+      </c>
+      <c r="N16">
+        <v>80.579772133699706</v>
+      </c>
+      <c r="O16">
+        <v>117.63723426721501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -8813,21 +10629,36 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
         <v>65</v>
       </c>
       <c r="F17">
-        <v>3878200.4923439599</v>
+        <f t="shared" si="0"/>
+        <v>5617819.0077623297</v>
       </c>
       <c r="G17">
-        <v>76926.052024346107</v>
+        <f t="shared" si="1"/>
+        <v>111381.94081733499</v>
       </c>
       <c r="H17">
-        <v>546200.19483234896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>791026.91752245906</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17">
+        <v>7260.2480882025602</v>
+      </c>
+      <c r="N17">
+        <v>4550.19262818269</v>
+      </c>
+      <c r="O17">
+        <v>5747.6540718554697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8837,23 +10668,38 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>65</v>
       </c>
       <c r="F18">
-        <v>4945.2017410361796</v>
+        <f t="shared" si="0"/>
+        <v>7260.2480882025602</v>
       </c>
       <c r="G18">
-        <v>3099.2842867930699</v>
+        <f t="shared" si="1"/>
+        <v>4550.19262818269</v>
       </c>
       <c r="H18">
-        <v>3914.9183964694798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5747.6540718554697</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="N18">
+        <v>276014.70038322202</v>
+      </c>
+      <c r="O18" s="7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -8863,21 +10709,36 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" t="s">
         <v>65</v>
       </c>
       <c r="F19">
-        <v>70.817512219372901</v>
+        <f t="shared" si="0"/>
+        <v>109.005618294277</v>
       </c>
       <c r="G19">
-        <v>35.439224432273697</v>
+        <f t="shared" si="1"/>
+        <v>54.4884313425285</v>
       </c>
       <c r="H19">
-        <v>50.0970828419943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>77.068444569600302</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19">
+        <v>5617819.0077623297</v>
+      </c>
+      <c r="N19">
+        <v>111381.94081733499</v>
+      </c>
+      <c r="O19">
+        <v>791026.91752245906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -8887,21 +10748,36 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" t="s">
         <v>65</v>
       </c>
       <c r="F20">
-        <v>124.902279144613</v>
+        <f t="shared" si="0"/>
+        <v>171.73688283802201</v>
       </c>
       <c r="G20">
-        <v>58.452739034964303</v>
+        <f t="shared" si="1"/>
+        <v>80.579772133699706</v>
       </c>
       <c r="H20">
-        <v>85.445189026137101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>117.63723426721501</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="N20">
+        <v>334806.95483181498</v>
+      </c>
+      <c r="O20" s="7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -8911,23 +10787,38 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>65</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="G21">
-        <v>216624.16422483599</v>
+        <f t="shared" si="1"/>
+        <v>321370.76819800801</v>
       </c>
       <c r="H21">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21">
+        <v>1.3029348115245201</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1.07902564601285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -8937,21 +10828,36 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
         <v>65</v>
       </c>
       <c r="F22">
-        <v>43982.781565694699</v>
+        <f t="shared" si="0"/>
+        <v>65450.852601543702</v>
       </c>
       <c r="G22">
-        <v>18662.379517612098</v>
+        <f t="shared" si="1"/>
+        <v>27829.472391768701</v>
       </c>
       <c r="H22">
-        <v>28650.0150404712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>42678.597627996001</v>
+      </c>
+      <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22">
+        <v>2.6463427506580102</v>
+      </c>
+      <c r="N22">
+        <v>1.4384510239295401</v>
+      </c>
+      <c r="O22">
+        <v>1.9510598246472499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -8961,21 +10867,36 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="5"/>
       <c r="E23" t="s">
         <v>65</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="G23">
-        <v>211340.64802423</v>
+        <f t="shared" si="1"/>
+        <v>269511.10940943903</v>
       </c>
       <c r="H23">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23">
+        <v>2.1084475747215601</v>
+      </c>
+      <c r="N23">
+        <v>1.32783326937543</v>
+      </c>
+      <c r="O23">
+        <v>1.6732204984547701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8985,23 +10906,38 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
       </c>
       <c r="F24">
-        <v>1.44613287841559</v>
+        <f t="shared" si="0"/>
+        <v>2.1084475747215601</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.32783326937543</v>
       </c>
       <c r="H24">
-        <v>1.14755589876294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6732204984547701</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24">
+        <v>65450.852601543702</v>
+      </c>
+      <c r="N24">
+        <v>27829.472391768701</v>
+      </c>
+      <c r="O24">
+        <v>42678.597627996001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -9011,21 +10947,36 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="5"/>
       <c r="E25" t="s">
         <v>65</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.3029348115245201</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.07902564601285</v>
+      </c>
+      <c r="L25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="N25">
+        <v>269511.10940943903</v>
+      </c>
+      <c r="O25" s="7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -9035,18 +10986,33 @@
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="5"/>
       <c r="E26" t="s">
         <v>65</v>
       </c>
       <c r="F26">
-        <v>2.0508941325717598</v>
+        <f t="shared" si="0"/>
+        <v>2.6463427506580102</v>
       </c>
       <c r="G26">
-        <v>1.11630687807042</v>
+        <f t="shared" si="1"/>
+        <v>1.4384510239295401</v>
       </c>
       <c r="H26">
-        <v>1.5130853334773</v>
+        <f t="shared" si="2"/>
+        <v>1.9510598246472499</v>
+      </c>
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="N26">
+        <v>321370.76819800801</v>
+      </c>
+      <c r="O26" s="7">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
@@ -9073,10 +11039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9086,9 +11052,11 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -9102,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9115,17 +11083,29 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="6">
-        <v>928071.33154618996</v>
-      </c>
-      <c r="F2" s="6">
-        <v>130856.361822142</v>
-      </c>
-      <c r="G2" s="6">
-        <v>348488.21781742602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1335855.4342054899</v>
+      </c>
+      <c r="F2">
+        <v>188255.08103164201</v>
+      </c>
+      <c r="G2">
+        <v>501479.38443460898</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2">
+        <v>1335855.4342054899</v>
+      </c>
+      <c r="R2">
+        <v>188255.08103164201</v>
+      </c>
+      <c r="S2">
+        <v>501479.38443460898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9138,17 +11118,29 @@
       <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="6">
-        <v>38454.858955935102</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20700.465452613498</v>
-      </c>
-      <c r="G3" s="6">
-        <v>28214.065274299999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>55329.051098665303</v>
+      </c>
+      <c r="F3">
+        <v>29793.682883257399</v>
+      </c>
+      <c r="G3">
+        <v>40601.184744600498</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3">
+        <v>55329.051098665303</v>
+      </c>
+      <c r="R3">
+        <v>29793.682883257399</v>
+      </c>
+      <c r="S3">
+        <v>40601.184744600498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9161,17 +11153,29 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="6">
-        <v>1891.6022002161101</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1348.82135445929</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1597.320707245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2701.27781884157</v>
+      </c>
+      <c r="F4">
+        <v>1923.66623024713</v>
+      </c>
+      <c r="G4">
+        <v>2279.55191180661</v>
+      </c>
+      <c r="P4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4">
+        <v>2701.27781884157</v>
+      </c>
+      <c r="R4">
+        <v>1923.66623024713</v>
+      </c>
+      <c r="S4">
+        <v>2279.55191180661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9184,17 +11188,29 @@
       <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="6">
-        <v>575.960409920384</v>
-      </c>
-      <c r="F5" s="6">
-        <v>397.32614255258301</v>
-      </c>
-      <c r="G5" s="6">
-        <v>478.37655454324999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>852.43354824394601</v>
+      </c>
+      <c r="F5">
+        <v>587.70961957203394</v>
+      </c>
+      <c r="G5">
+        <v>707.80180583895697</v>
+      </c>
+      <c r="P5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5">
+        <v>852.43354824394601</v>
+      </c>
+      <c r="R5">
+        <v>587.70961957203394</v>
+      </c>
+      <c r="S5">
+        <v>707.80180583895697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9207,17 +11223,29 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="6">
-        <v>2.2615385976281401</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.60803709490224</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.9069971044915699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3.1860980145466602</v>
+      </c>
+      <c r="F6">
+        <v>2.2624215821151501</v>
+      </c>
+      <c r="G6">
+        <v>2.68482716591675</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6">
+        <v>3.1860980145466602</v>
+      </c>
+      <c r="R6">
+        <v>2.2624215821151501</v>
+      </c>
+      <c r="S6">
+        <v>2.68482716591675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9230,17 +11258,29 @@
       <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="6">
-        <v>13713281.8429213</v>
-      </c>
-      <c r="F7" s="6">
-        <v>271921.86801605899</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1931046.6631746199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>18620769.058637999</v>
+      </c>
+      <c r="F7">
+        <v>369080.75018223899</v>
+      </c>
+      <c r="G7">
+        <v>2621558.20327002</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>18620769.058637999</v>
+      </c>
+      <c r="R7">
+        <v>369080.75018223899</v>
+      </c>
+      <c r="S7">
+        <v>2621558.20327002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9253,17 +11293,29 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="6">
-        <v>1128.96426329162</v>
-      </c>
-      <c r="F8" s="6">
-        <v>758.01971439059105</v>
-      </c>
-      <c r="G8" s="6">
-        <v>925.082249541897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1655.2149566692999</v>
+      </c>
+      <c r="F8">
+        <v>1114.23004653203</v>
+      </c>
+      <c r="G8">
+        <v>1358.0464786560699</v>
+      </c>
+      <c r="P8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8">
+        <v>1655.2149566692999</v>
+      </c>
+      <c r="R8">
+        <v>1114.23004653203</v>
+      </c>
+      <c r="S8">
+        <v>1358.0464786560699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9276,17 +11328,29 @@
       <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="6">
-        <v>137709.09634805599</v>
-      </c>
-      <c r="F9" s="6">
-        <v>58531.243391171403</v>
-      </c>
-      <c r="G9" s="6">
-        <v>89779.087963324506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>194799.108653517</v>
+      </c>
+      <c r="F9">
+        <v>82922.111734962702</v>
+      </c>
+      <c r="G9">
+        <v>127095.056763188</v>
+      </c>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9">
+        <v>194799.108653517</v>
+      </c>
+      <c r="R9">
+        <v>82922.111734962702</v>
+      </c>
+      <c r="S9">
+        <v>127095.056763188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9299,14 +11363,26 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="6">
-        <v>1.1523806577792299</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1.0118540873648501</v>
+      <c r="E10">
+        <v>1.6312151375067401</v>
+      </c>
+      <c r="F10">
+        <v>1.25711153949988</v>
+      </c>
+      <c r="G10">
+        <v>1.43199838434497</v>
+      </c>
+      <c r="P10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10">
+        <v>1.6312151375067401</v>
+      </c>
+      <c r="R10">
+        <v>1.25711153949988</v>
+      </c>
+      <c r="S10">
+        <v>1.43199838434497</v>
       </c>
     </row>
   </sheetData>
@@ -9324,8 +11400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9347,24 +11423,24 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C2">
-        <v>2446462.3772858498</v>
+        <v>3558490.7305975901</v>
       </c>
       <c r="D2">
-        <v>48586.210991013097</v>
+        <v>70670.852350564397</v>
       </c>
       <c r="E2">
-        <v>344767.07679879398</v>
+        <v>501479.38443460898</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -9372,29 +11448,29 @@
         <v>10000000</v>
       </c>
       <c r="D3">
-        <v>117998.528480195</v>
+        <v>169072.518419384</v>
       </c>
       <c r="E3">
         <v>10000000</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C4">
-        <v>380609.55553554802</v>
+        <v>507479.40738072997</v>
       </c>
       <c r="D4">
-        <v>39643.366641560497</v>
+        <v>52857.822188747297</v>
       </c>
       <c r="E4">
-        <v>122835.842315576</v>
+        <v>163781.123087435</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -9402,42 +11478,42 @@
         <v>10000000</v>
       </c>
       <c r="D5">
-        <v>109192.668145852</v>
+        <v>169072.518419384</v>
       </c>
       <c r="E5">
         <v>10000000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6">
-        <v>1568162.4363238299</v>
+        <v>2116049.3157312102</v>
       </c>
       <c r="D6">
-        <v>31146.911431633602</v>
+        <v>42029.064780148001</v>
       </c>
       <c r="E6">
-        <v>221005.46715996199</v>
+        <v>298220.67964655801</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C7">
-        <v>92485.769036600293</v>
+        <v>140930.69567481999</v>
       </c>
       <c r="D7">
-        <v>21048.659362429102</v>
+        <v>32074.147599892</v>
       </c>
       <c r="E7">
-        <v>44121.439780719898</v>
+        <v>67232.670142049494</v>
       </c>
       <c r="M7" t="s">
         <v>105</v>
@@ -9450,399 +11526,399 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C8">
-        <v>16028.978271923101</v>
+        <v>23673.567909301699</v>
       </c>
       <c r="D8">
-        <v>7129.8083950285099</v>
+        <v>10530.1785526575</v>
       </c>
       <c r="E8">
-        <v>10690.348163034099</v>
+        <v>15788.8219023273</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
       </c>
       <c r="M8">
         <f>AVERAGE(E2:E5)</f>
-        <v>5116900.7297785925</v>
+        <v>5166315.1268805107</v>
       </c>
       <c r="N8">
         <f>MEDIAN(E2:E5)</f>
-        <v>5172383.5383993965</v>
-      </c>
-      <c r="O8" s="6">
-        <v>348488.21781742602</v>
+        <v>5250739.6922173044</v>
+      </c>
+      <c r="O8" s="4">
+        <v>501479.38443460898</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C9">
-        <v>84650.360906671005</v>
+        <v>117774.41517449899</v>
       </c>
       <c r="D9">
-        <v>21064.2809823469</v>
+        <v>29306.825714569499</v>
       </c>
       <c r="E9">
-        <v>42226.756770976201</v>
+        <v>58750.270290053901</v>
       </c>
       <c r="L9" t="s">
         <v>64</v>
       </c>
       <c r="M9">
         <f>AVERAGE(E6:E9)</f>
-        <v>79511.002968673041</v>
+        <v>109998.11049524718</v>
       </c>
       <c r="N9">
         <f>MEDIAN(E6:E9)</f>
-        <v>43174.098275848053</v>
-      </c>
-      <c r="O9" s="6">
-        <v>28214.065274299999</v>
+        <v>62991.470216051697</v>
+      </c>
+      <c r="O9" s="4">
+        <v>40601.184744600498</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C10">
-        <v>9635.7814123041207</v>
+        <v>13603.4561114881</v>
       </c>
       <c r="D10">
-        <v>4708.9081059414902</v>
+        <v>6647.8702672115196</v>
       </c>
       <c r="E10">
-        <v>6736.0232481397497</v>
+        <v>9509.6798797266893</v>
       </c>
       <c r="L10" t="s">
         <v>57</v>
       </c>
       <c r="M10">
         <f>AVERAGE(E10:E15)</f>
-        <v>1699.9607231589632</v>
+        <v>2404.4947601361673</v>
       </c>
       <c r="N10">
         <f>MEDIAN(E10:E15)</f>
-        <v>617.72524048813204</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1597.320707245</v>
+        <v>907.57049776248891</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2279.55191180661</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C11">
-        <v>2449.84910531989</v>
+        <v>3359.79305872442</v>
       </c>
       <c r="D11">
-        <v>1021.78685479501</v>
+        <v>1401.3076865760199</v>
       </c>
       <c r="E11">
-        <v>1582.1578973184601</v>
+        <v>2169.8165448938998</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
       </c>
       <c r="M11">
         <f>AVERAGE(E16:E21)</f>
-        <v>629.73830415938164</v>
+        <v>953.42935979056472</v>
       </c>
       <c r="N11">
         <f>MEDIAN(E16:E21)</f>
-        <v>286.50397582399</v>
-      </c>
-      <c r="O11" s="6">
-        <v>478.37655454324999</v>
+        <v>395.06637391013902</v>
+      </c>
+      <c r="O11" s="4">
+        <v>707.80180583895697</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C12">
-        <v>593.37746904564597</v>
+        <v>825.56865258524601</v>
       </c>
       <c r="D12">
-        <v>244.55774743045299</v>
+        <v>340.25425729454298</v>
       </c>
       <c r="E12">
-        <v>380.93970284782199</v>
+        <v>530.00306483175098</v>
       </c>
       <c r="L12" t="s">
         <v>58</v>
       </c>
       <c r="M12">
         <f>AVERAGE(E22:E27)</f>
-        <v>3.2629040686849984</v>
+        <v>4.4824124528301432</v>
       </c>
       <c r="N12">
         <f>MEDIAN(E22:E27)</f>
-        <v>1.11307222845564</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1.9069971044915699</v>
+        <v>1.45735686597615</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.68482716591675</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C13">
-        <v>414.01642190845399</v>
+        <v>628.11018510180099</v>
       </c>
       <c r="D13">
-        <v>169.86604554099199</v>
+        <v>257.70618666632402</v>
       </c>
       <c r="E13">
-        <v>265.19300967148399</v>
+        <v>402.32807583968599</v>
       </c>
       <c r="L13" t="s">
         <v>60</v>
       </c>
       <c r="M13">
         <f>AVERAGE(E28:E33)</f>
-        <v>8375123.2820362179</v>
+        <v>8391266.5035716314</v>
       </c>
       <c r="N13">
         <f>MEDIAN(E28:E33)</f>
         <v>10000000</v>
       </c>
-      <c r="O13" s="6">
-        <v>1931046.6631746199</v>
+      <c r="O13" s="4">
+        <v>2621558.20327002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C14">
-        <v>680.39609195626099</v>
+        <v>989.81218780801203</v>
       </c>
       <c r="D14">
-        <v>271.39329343936498</v>
+        <v>394.81177612776202</v>
       </c>
       <c r="E14">
-        <v>429.71494765633003</v>
+        <v>625.13159246784801</v>
       </c>
       <c r="L14" t="s">
         <v>61</v>
       </c>
       <c r="M14">
         <f>AVERAGE(E34:E39)</f>
-        <v>1374.5919599559595</v>
+        <v>2016.7860134028597</v>
       </c>
       <c r="N14">
         <f>MEDIAN(E34:E39)</f>
-        <v>158.63754447133024</v>
-      </c>
-      <c r="O14" s="6">
-        <v>925.082249541897</v>
+        <v>223.32541970134048</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1358.0464786560699</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C15">
-        <v>1322.5805031695299</v>
+        <v>1953.3496662196201</v>
       </c>
       <c r="D15">
-        <v>490.865960974431</v>
+        <v>724.97126543915999</v>
       </c>
       <c r="E15">
-        <v>805.73553331993401</v>
+        <v>1190.0094030571299</v>
       </c>
       <c r="L15" t="s">
         <v>62</v>
       </c>
       <c r="M15">
         <f>AVERAGE(E40:E45)</f>
-        <v>6727072.2155532865</v>
+        <v>6753500.948454448</v>
       </c>
       <c r="N15">
         <f>MEDIAN(E40:E45)</f>
         <v>10000000</v>
       </c>
-      <c r="O15" s="6">
-        <v>89779.087963324506</v>
+      <c r="O15" s="4">
+        <v>127095.056763188</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C16">
-        <v>3472.9059897889601</v>
+        <v>5377.4028228990301</v>
       </c>
       <c r="D16">
-        <v>1735.9322502488899</v>
+        <v>2687.89509715957</v>
       </c>
       <c r="E16">
-        <v>2455.3471261223299</v>
+        <v>3801.82780818942</v>
       </c>
       <c r="L16" t="s">
         <v>63</v>
       </c>
       <c r="M16">
         <f>AVERAGE(E46:E51)</f>
-        <v>1.2538516457138666</v>
+        <v>1.5888035257866917</v>
       </c>
       <c r="N16">
         <f>MEDIAN(E46:E51)</f>
-        <v>1.1140154397390551</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1.0118540873648501</v>
+        <v>1.4065238074801849</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.43199838434497</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C17">
-        <v>400.97546336908903</v>
+        <v>601.78539878679703</v>
       </c>
       <c r="D17">
-        <v>164.34979306399001</v>
+        <v>246.65675283103801</v>
       </c>
       <c r="E17">
-        <v>256.71040966125099</v>
+        <v>385.27189407726502</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C18">
-        <v>668.549050266216</v>
+        <v>1035.1727229928499</v>
       </c>
       <c r="D18">
-        <v>272.21192332206198</v>
+        <v>421.48942965996702</v>
       </c>
       <c r="E18">
-        <v>426.59937037940398</v>
+        <v>660.54096058746495</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C19">
-        <v>203.70354988831099</v>
+        <v>264.26406471997097</v>
       </c>
       <c r="D19">
-        <v>69.315095603682096</v>
+        <v>89.922286188560605</v>
       </c>
       <c r="E19">
-        <v>118.826474471465</v>
+        <v>154.153264179198</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C20">
-        <v>495.92324158918399</v>
+        <v>634.781749234156</v>
       </c>
       <c r="D20">
-        <v>201.73310439384801</v>
+        <v>258.218373624126</v>
       </c>
       <c r="E20">
-        <v>316.29754198672902</v>
+        <v>404.86085374301302</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C21">
-        <v>325.237986316177</v>
+        <v>498.899117789591</v>
       </c>
       <c r="D21">
-        <v>128.770853925567</v>
+        <v>197.52817359416301</v>
       </c>
       <c r="E21">
-        <v>204.64890233511099</v>
+        <v>313.92137796702701</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C22">
-        <v>24.889093744942201</v>
+        <v>35.497619687062198</v>
       </c>
       <c r="D22">
-        <v>7.83196150470389</v>
+        <v>11.170193408676701</v>
       </c>
       <c r="E22">
-        <v>13.961748604575099</v>
+        <v>19.912691366365699</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C23">
-        <v>1.71215580043071</v>
+        <v>2.2330454021919901</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.0741443573143401</v>
       </c>
       <c r="E23">
-        <v>1.1874787059938801</v>
+        <v>1.5487456596844</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C24">
-        <v>1.46470040762562</v>
+        <v>1.92625393731066</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1.0386657509174</v>
+        <v>1.3659680722679</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.29485023583615</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9852,37 +11928,37 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>1.5433118885677499</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>1.17539734707288</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27">
-        <v>2.0161764795449</v>
+        <v>2.7447708461383802</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>1.30372412988023</v>
       </c>
       <c r="E27">
-        <v>1.38953135062361</v>
+        <v>1.8916722715899801</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -9892,14 +11968,14 @@
         <v>10000000</v>
       </c>
       <c r="D28">
-        <v>132932.82920580401</v>
+        <v>165734.43641243101</v>
       </c>
       <c r="E28">
         <v>10000000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
@@ -9907,14 +11983,14 @@
         <v>10000000</v>
       </c>
       <c r="D29">
-        <v>132087.905015144</v>
+        <v>169072.518419384</v>
       </c>
       <c r="E29">
         <v>10000000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
@@ -9922,14 +11998,14 @@
         <v>10000000</v>
       </c>
       <c r="D30">
-        <v>79252.743009086204</v>
+        <v>106942.181963838</v>
       </c>
       <c r="E30">
         <v>10000000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
@@ -9937,29 +12013,29 @@
         <v>10000000</v>
       </c>
       <c r="D31">
-        <v>117998.528480195</v>
+        <v>169072.518419384</v>
       </c>
       <c r="E31">
         <v>10000000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C32">
-        <v>1779245.3652987899</v>
+        <v>2466557.81696242</v>
       </c>
       <c r="D32">
-        <v>35335.426175282199</v>
+        <v>48985.302054562002</v>
       </c>
       <c r="E32">
-        <v>250739.69221730399</v>
+        <v>347599.02142978599</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
@@ -9967,106 +12043,106 @@
         <v>10000000</v>
       </c>
       <c r="D33">
-        <v>98625.635744640604</v>
+        <v>148017.70422186199</v>
       </c>
       <c r="E33">
         <v>10000000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C34">
-        <v>3696.9644407430901</v>
+        <v>5377.4028228990301</v>
       </c>
       <c r="D34">
-        <v>1847.92787929721</v>
+        <v>2687.89509715957</v>
       </c>
       <c r="E34">
-        <v>2613.75661813022</v>
+        <v>3801.82780818942</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C35">
-        <v>7407.8321787900404</v>
+        <v>10940.798294828401</v>
       </c>
       <c r="D35">
-        <v>3763.2998266096702</v>
+        <v>5558.1043593004397</v>
       </c>
       <c r="E35">
-        <v>5279.95204088012</v>
+        <v>7798.0830142229397</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C36">
-        <v>143.554861058993</v>
+        <v>225.28449142191101</v>
       </c>
       <c r="D36">
-        <v>49.419983686075497</v>
+        <v>77.556105092264204</v>
       </c>
       <c r="E36">
-        <v>84.228729609274495</v>
+        <v>132.18240311166599</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C37">
-        <v>43.406600215812297</v>
+        <v>64.458413010796093</v>
       </c>
       <c r="D37">
-        <v>16.634815326471301</v>
+        <v>24.702551946959499</v>
       </c>
       <c r="E37">
-        <v>26.871188632809101</v>
+        <v>39.9034747336339</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C38">
-        <v>19.510033822481901</v>
+        <v>28.6729367522668</v>
       </c>
       <c r="D38">
-        <v>4.81948827239012</v>
+        <v>7.0829647795533202</v>
       </c>
       <c r="E38">
-        <v>9.6968231499489601</v>
+        <v>14.2509438684834</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="1">
-        <v>363.04168233145901</v>
+        <v>489.88171485619898</v>
       </c>
       <c r="D39" s="1">
-        <v>149.59881534748899</v>
+        <v>201.865867666329</v>
       </c>
       <c r="E39" s="1">
-        <v>233.04635933338599</v>
+        <v>314.468436291015</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -10076,14 +12152,14 @@
         <v>10000000</v>
       </c>
       <c r="D40">
-        <v>100386.807811509</v>
+        <v>152298.24977862401</v>
       </c>
       <c r="E40">
         <v>10000000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>65</v>
       </c>
@@ -10091,44 +12167,44 @@
         <v>10000000</v>
       </c>
       <c r="D41">
-        <v>116237.35641332599</v>
+        <v>169072.518419384</v>
       </c>
       <c r="E41">
         <v>10000000</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C42">
-        <v>2483529.9890629002</v>
+        <v>3558490.7305975901</v>
       </c>
       <c r="D42">
-        <v>49322.365702998097</v>
+        <v>70670.852350564397</v>
       </c>
       <c r="E42">
-        <v>349990.820386654</v>
+        <v>501479.38443460898</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C43">
-        <v>19315.5465863518</v>
+        <v>30312.405007687401</v>
       </c>
       <c r="D43">
-        <v>8015.0531592658299</v>
+        <v>12578.237764883101</v>
       </c>
       <c r="E43">
-        <v>12442.472933058199</v>
+        <v>19526.306292080099</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -10136,14 +12212,14 @@
         <v>10000000</v>
       </c>
       <c r="D44">
-        <v>75730.398875349099</v>
+        <v>100438.590990055</v>
       </c>
       <c r="E44">
         <v>10000000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
         <v>65</v>
       </c>
@@ -10151,51 +12227,51 @@
         <v>10000000</v>
       </c>
       <c r="D45">
-        <v>135610.249148881</v>
+        <v>169072.518419384</v>
       </c>
       <c r="E45">
         <v>10000000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C46">
-        <v>2.2576269261809601</v>
+        <v>3.1589847813188201</v>
       </c>
       <c r="D46">
-        <v>1.05811709232868</v>
+        <v>1.4805704843244301</v>
       </c>
       <c r="E46">
-        <v>1.5455852091339199</v>
+        <v>2.1626603125897299</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C47">
-        <v>1.2214603397463</v>
+        <v>1.8530948037182</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>1.0290058636159001</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>1.3808857370768199</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>1.28758621148876</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -10205,48 +12281,48 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>1.5433118885677499</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>1.17539734707288</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C50">
-        <v>2.6360611232011402</v>
+        <v>3.5886658697826301</v>
       </c>
       <c r="D50">
-        <v>1.1610992169958501</v>
+        <v>1.58069063527795</v>
       </c>
       <c r="E50">
-        <v>1.7494937856711701</v>
+        <v>2.3817158800971701</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C51">
-        <v>1.9270114562926499</v>
+        <v>2.2473313921226898</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1.2280308794781101</v>
+        <v>1.4321618778835501</v>
       </c>
     </row>
   </sheetData>
@@ -10264,4 +12340,760 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>501479.38443460898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>530.00306483175098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>402.32807583968599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.3659680722679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>660.54096058746495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>154.153264179198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>132.18240311166599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>39.9034747336339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>501479.38443460898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>19526.306292080099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1.17539734707288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>298220.67964655801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>67232.670142049494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>163781.123087435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>15788.8219023273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>58750.270290053901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>625.13159246784801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1190.0094030571299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1.17539734707288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1.8916722715899801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>404.86085374301302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>313.92137796702701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>347599.02142978599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>14.2509438684834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>314.468436291015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>2.3817158800971701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1.4321618778835501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>9509.6798797266893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>2169.8165448938998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>19.912691366365699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1.5487456596844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>3801.82780818942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>385.27189407726502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>3801.82780818942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>7798.0830142229397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>2.1626603125897299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1.3808857370768199</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B51">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Group 1_CSF2RB_WT_9"/>
+        <filter val="Group 13_CSF3R_WT_9"/>
+        <filter val="Group 14_CSF3R_T618I_9"/>
+        <filter val="Group 15_CSF3R_W791X_9"/>
+        <filter val="Group 16_IL7R_WT_9"/>
+        <filter val="Group 17_IL7R_243InsPPCL_9"/>
+        <filter val="Group 18_Vector_Empty_9"/>
+        <filter val="Group 19_P210_Fusion_9"/>
+        <filter val="Group 2_CSF2RB_R461C_9"/>
+        <filter val="Group 21_CSF2RB_WT_9"/>
+        <filter val="Group 22_CSF2RB_R461C_9"/>
+        <filter val="Group 23_CSF3R_WT_9"/>
+        <filter val="Group 24_CSF3R_T618I_9"/>
+        <filter val="Group 25_CSF3R_W791X_9"/>
+        <filter val="Group 26_IL7R_WT_9"/>
+        <filter val="Group 27_IL7R_243InsPPCL_9"/>
+        <filter val="Group 28_Vector_Empty_9"/>
+        <filter val="Group 29_P210_Fusion_9"/>
+        <filter val="Group 3_CSF3R_WT_9"/>
+        <filter val="Group 4_CSF3R_T618I_9"/>
+        <filter val="Group 5_CSF3R_W791X_9"/>
+        <filter val="Group 6_IL7R_WT_9"/>
+        <filter val="Group 7_IL7R_243InsPPCL_9"/>
+        <filter val="Group 8_Vector_Empty_9"/>
+        <filter val="Group 9_P210_Fusion_9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>501479.38443460898</v>
+      </c>
+      <c r="C2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>530.00306483175098</v>
+      </c>
+      <c r="C3">
+        <v>402.32807583968599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.3659680722679</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>660.54096058746495</v>
+      </c>
+      <c r="C5">
+        <v>154.153264179198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10000000</v>
+      </c>
+      <c r="C6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>132.18240311166599</v>
+      </c>
+      <c r="C7">
+        <v>39.9034747336339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>501479.38443460898</v>
+      </c>
+      <c r="C8">
+        <v>19526.306292080099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.17539734707288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>298220.67964655801</v>
+      </c>
+      <c r="C10">
+        <v>67232.670142049494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>163781.123087435</v>
+      </c>
+      <c r="C11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>15788.8219023273</v>
+      </c>
+      <c r="C12">
+        <v>58750.270290053901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>625.13159246784801</v>
+      </c>
+      <c r="C13">
+        <v>1190.0094030571299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1.17539734707288</v>
+      </c>
+      <c r="C14">
+        <v>1.8916722715899801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>404.86085374301302</v>
+      </c>
+      <c r="C15">
+        <v>313.92137796702701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>347599.02142978599</v>
+      </c>
+      <c r="C16">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>14.2509438684834</v>
+      </c>
+      <c r="C17">
+        <v>314.468436291015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>10000000</v>
+      </c>
+      <c r="C18">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>2.3817158800971701</v>
+      </c>
+      <c r="C19">
+        <v>1.4321618778835501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>9509.6798797266893</v>
+      </c>
+      <c r="C20">
+        <v>2169.8165448938998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>19.912691366365699</v>
+      </c>
+      <c r="C21">
+        <v>1.5487456596844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>3801.82780818942</v>
+      </c>
+      <c r="C22">
+        <v>385.27189407726502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>10000000</v>
+      </c>
+      <c r="C23">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>3801.82780818942</v>
+      </c>
+      <c r="C24">
+        <v>7798.0830142229397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>10000000</v>
+      </c>
+      <c r="C25">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>2.1626603125897299</v>
+      </c>
+      <c r="C26">
+        <v>1.3808857370768199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>